--- a/hamlet/tables.xlsx
+++ b/hamlet/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\GitKraken\HAMLET\hamlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\hamlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5170B058-2F71-43FB-BC57-4E9E9A0D502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BED9E-25DD-48AD-8748-2684FC98E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="299">
   <si>
     <t>column</t>
   </si>
@@ -583,9 +583,6 @@
     <t>type_plants</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>types of plants (per agent)</t>
   </si>
   <si>
@@ -899,6 +896,45 @@
   </si>
   <si>
     <t>meter_readings_delta</t>
+  </si>
+  <si>
+    <t>energy_type</t>
+  </si>
+  <si>
+    <t>type of energy (electr., heat, etc.)</t>
+  </si>
+  <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>contains the timetable with the actions to be conducted in the market</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>action to be undertaken for market</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>clearing method (pda, etc.)</t>
+  </si>
+  <si>
+    <t>clearing type (ex-ante, ex-post)</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>pricing method (uniform, etc.)</t>
+  </si>
+  <si>
+    <t>coupling</t>
+  </si>
+  <si>
+    <t>coupling method (above, below)</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1022,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1023,6 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1347,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2690,15 +2727,15 @@
     <row r="125" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2706,7 +2743,7 @@
         <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -2788,31 +2825,31 @@
         <v>72</v>
       </c>
       <c r="C133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G133" t="s">
         <v>72</v>
       </c>
       <c r="H133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2823,15 +2860,15 @@
     <row r="135" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="V138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2845,28 +2882,28 @@
         <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E139" t="s">
         <v>31</v>
       </c>
       <c r="F139" t="s">
+        <v>189</v>
+      </c>
+      <c r="G139" t="s">
         <v>190</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>191</v>
-      </c>
-      <c r="H139" t="s">
-        <v>192</v>
       </c>
       <c r="I139" t="s">
         <v>30</v>
       </c>
       <c r="J139" t="s">
+        <v>192</v>
+      </c>
+      <c r="K139" t="s">
         <v>193</v>
-      </c>
-      <c r="K139" t="s">
-        <v>194</v>
       </c>
       <c r="L139" t="s">
         <v>26</v>
@@ -2875,28 +2912,28 @@
         <v>32</v>
       </c>
       <c r="N139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O139" t="s">
         <v>34</v>
       </c>
       <c r="P139" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q139" t="s">
         <v>196</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="R139" t="s">
         <v>197</v>
-      </c>
-      <c r="R139" t="s">
-        <v>198</v>
       </c>
       <c r="S139" t="s">
         <v>33</v>
       </c>
       <c r="T139" t="s">
+        <v>198</v>
+      </c>
+      <c r="U139" t="s">
         <v>199</v>
-      </c>
-      <c r="U139" t="s">
-        <v>200</v>
       </c>
       <c r="V139" t="s">
         <v>38</v>
@@ -2905,7 +2942,7 @@
         <v>35</v>
       </c>
       <c r="X139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y139" t="s">
         <v>77</v>
@@ -3017,88 +3054,88 @@
         <v>28</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C141" t="s">
         <v>72</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H141" t="s">
         <v>72</v>
       </c>
       <c r="I141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R141" t="s">
         <v>72</v>
       </c>
       <c r="S141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3109,15 +3146,15 @@
     <row r="143" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3162,7 @@
         <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="F149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3174,19 +3211,19 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E151" t="s">
         <v>72</v>
       </c>
       <c r="F151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3197,10 +3234,10 @@
     <row r="153" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3208,7 +3245,7 @@
         <v>60</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3257,7 @@
         <v>114</v>
       </c>
       <c r="C158" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3239,7 +3276,7 @@
         <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3250,10 +3287,10 @@
     <row r="162" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B164" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3261,7 +3298,7 @@
         <v>60</v>
       </c>
       <c r="B165" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="166" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3273,7 +3310,7 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3292,7 +3329,7 @@
         <v>28</v>
       </c>
       <c r="B169" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3303,10 +3340,10 @@
     <row r="171" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B173" t="s">
         <v>234</v>
-      </c>
-      <c r="B173" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3314,7 +3351,7 @@
         <v>60</v>
       </c>
       <c r="B174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3326,7 +3363,7 @@
         <v>114</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3382,7 @@
         <v>28</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3356,10 +3393,10 @@
     <row r="180" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="183" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3404,7 @@
         <v>60</v>
       </c>
       <c r="B183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3379,10 +3416,10 @@
         <v>114</v>
       </c>
       <c r="C185" t="s">
+        <v>239</v>
+      </c>
+      <c r="D185" t="s">
         <v>240</v>
-      </c>
-      <c r="D185" t="s">
-        <v>241</v>
       </c>
       <c r="E185" t="s">
         <v>49</v>
@@ -3428,25 +3465,25 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3457,10 +3494,10 @@
     <row r="189" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3468,7 +3505,7 @@
         <v>60</v>
       </c>
       <c r="B192" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3480,7 +3517,7 @@
         <v>114</v>
       </c>
       <c r="C194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3499,7 +3536,7 @@
         <v>28</v>
       </c>
       <c r="B196" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3521,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B957E-FD5F-4D07-9D0A-3E5DB720F61E}">
-  <dimension ref="A1:AE204"/>
+  <dimension ref="A1:AK214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3534,27 +3571,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
         <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3562,13 +3599,13 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
         <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3576,16 +3613,16 @@
     </row>
     <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3593,16 +3630,16 @@
     </row>
     <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3610,16 +3647,16 @@
     </row>
     <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3627,16 +3664,16 @@
     </row>
     <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3644,16 +3681,16 @@
     </row>
     <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3661,16 +3698,16 @@
     </row>
     <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3678,16 +3715,16 @@
     </row>
     <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3695,33 +3732,33 @@
     </row>
     <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3729,16 +3766,16 @@
     </row>
     <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3746,16 +3783,16 @@
     </row>
     <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3763,116 +3800,132 @@
     </row>
     <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" t="s">
         <v>257</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s">
         <v>265</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" t="s">
         <v>267</v>
       </c>
-      <c r="B21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:31" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>112</v>
       </c>
@@ -3892,82 +3945,100 @@
         <v>151</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="M26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="O26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="P26" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="T26" s="9" t="s">
+      <c r="U26" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="V26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="V26" s="9" t="s">
+      <c r="W26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="X26" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="W26" s="9" t="s">
+      <c r="Y26" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="X26" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y26" s="9" t="s">
+      <c r="Z26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Z26" s="9" t="s">
+      <c r="AA26" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AA26" s="9" t="s">
+      <c r="AB26" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AB26" s="9" t="s">
+      <c r="AC26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AC26" s="9" t="s">
+      <c r="AD26" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AD26" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="AE26" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
@@ -3999,13 +4070,13 @@
         <v>98</v>
       </c>
       <c r="K27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="M27" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>128</v>
@@ -4014,7 +4085,7 @@
         <v>128</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>92</v>
@@ -4023,7 +4094,7 @@
         <v>92</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T27" s="9" t="s">
         <v>93</v>
@@ -4032,34 +4103,52 @@
         <v>93</v>
       </c>
       <c r="V27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W27" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="X27" s="9" t="s">
         <v>127</v>
       </c>
       <c r="Y27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Z27" s="9" t="s">
+      <c r="AA27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AA27" s="9" t="s">
+      <c r="AB27" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="AB27" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>98</v>
       </c>
       <c r="AD27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE27" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="AG27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>111</v>
       </c>
@@ -4094,7 +4183,7 @@
         <v>155</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>135</v>
@@ -4106,52 +4195,70 @@
         <v>135</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S28" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE28" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="T28" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y28" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z28" s="9" t="s">
+      <c r="AG28" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="AA28" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB28" s="9" t="s">
+      <c r="AH28" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="AC28" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD28" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="AI28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
@@ -4171,85 +4278,103 @@
         <v>154</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="J29" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="M29" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="P29" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="Q29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="R29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="S29" s="9" t="s">
-        <v>217</v>
-      </c>
       <c r="T29" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="U29" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="V29" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="V29" s="9" t="s">
+      <c r="W29" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="W29" s="9" t="s">
+      <c r="Y29" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="X29" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Z29" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="Z29" s="9" t="s">
+      <c r="AA29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AA29" s="9" t="s">
+      <c r="AB29" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB29" s="9" t="s">
+      <c r="AC29" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AC29" s="9" t="s">
-        <v>182</v>
-      </c>
       <c r="AD29" s="9" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>170</v>
       </c>
@@ -4333,10 +4458,10 @@
         <v>-9.2233720368547697E+18</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4371,10 +4496,10 @@
         <v>9.2233720368547697E+18</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4436,19 +4561,19 @@
         <v>balancing_energy</v>
       </c>
       <c r="B44" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A44,$A$4:$A$21,$B$4:$B$21)</f>
+        <f>_xlfn.XLOOKUP(A44,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Analyzer</v>
       </c>
       <c r="C44" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A44,$A$4:$A$21,$C$4:$C$21)</f>
+        <f>_xlfn.XLOOKUP(A44,$A$4:$A$22,$C$4:$C$22)</f>
         <v>who required how much balancing energy and what it cost (can be extracted from market transactions)</v>
       </c>
       <c r="D44" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A44,$A$4:$A$21,$D$4:$D$21)</f>
+        <f>_xlfn.XLOOKUP(A44,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
       <c r="E44" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A44,$A$4:$A$21,$E$4:$E$21)</f>
+        <f>_xlfn.XLOOKUP(A44,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
@@ -4476,31 +4601,31 @@
         <v>name</v>
       </c>
       <c r="F46" t="str">
-        <f>H26</f>
+        <f>I26</f>
         <v>id_agent</v>
       </c>
       <c r="G46" s="9" t="str">
-        <f>M26</f>
+        <f>N26</f>
         <v>energy_in</v>
       </c>
       <c r="H46" s="9" t="str">
-        <f>N26</f>
+        <f>O26</f>
         <v>energy_out</v>
       </c>
       <c r="I46" s="9" t="str">
-        <f>Q26</f>
+        <f>R26</f>
         <v>price_pu_in</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f>R26</f>
+        <f>S26</f>
         <v>price_pu_out</v>
       </c>
       <c r="K46" s="9" t="str">
-        <f>T26</f>
+        <f>U26</f>
         <v>price_in</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f>U26</f>
+        <f>V26</f>
         <v>price_out</v>
       </c>
     </row>
@@ -4657,10 +4782,7 @@
     <row r="50" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -4682,3155 +4804,3287 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="str">
         <f>A5</f>
-        <v>market_transactions</v>
+        <v>timetable</v>
       </c>
       <c r="B53" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A53,$A$4:$A$21,$B$4:$B$21)</f>
+        <f>_xlfn.XLOOKUP(A207,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
       <c r="C53" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A53,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains all trades done in the markets</v>
+        <f>_xlfn.XLOOKUP(A53,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains the timetable with the actions to be conducted in the market</v>
       </c>
       <c r="D53" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A53,$A$4:$A$21,$D$4:$D$21)</f>
+        <f>_xlfn.XLOOKUP(A53,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
       <c r="E53" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A53,$A$4:$A$21,$E$4:$E$21)</f>
+        <f>_xlfn.XLOOKUP(A53,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-    </row>
+    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="9" t="str">
-        <f t="shared" ref="B55:F55" si="10">B26</f>
+      <c r="A55"/>
+      <c r="D55" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="18" t="str">
+        <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C55" s="9" t="str">
+      <c r="C56" s="18" t="str">
+        <f>C26</f>
+        <v>timestep</v>
+      </c>
+      <c r="D56" s="18" t="str">
+        <f>D26</f>
+        <v>region</v>
+      </c>
+      <c r="E56" s="18" t="str">
+        <f>E26</f>
+        <v>market</v>
+      </c>
+      <c r="F56" s="18" t="str">
+        <f>F26</f>
+        <v>name</v>
+      </c>
+      <c r="G56" s="18" t="str">
+        <f>G26</f>
+        <v>energy_type</v>
+      </c>
+      <c r="H56" s="9" t="str">
+        <f>AG26</f>
+        <v>action</v>
+      </c>
+      <c r="I56" s="9" t="str">
+        <f t="shared" ref="I56:K56" si="10">AH26</f>
+        <v>type</v>
+      </c>
+      <c r="J56" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>timestep</v>
-      </c>
-      <c r="D55" s="9" t="str">
+        <v>method</v>
+      </c>
+      <c r="K56" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>region</v>
-      </c>
-      <c r="E55" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>market</v>
-      </c>
-      <c r="F55" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>name</v>
-      </c>
-      <c r="G55" s="9" t="str">
-        <f>G26</f>
-        <v>type_transaction</v>
-      </c>
-      <c r="H55" s="9" t="str">
-        <f>H26</f>
-        <v>id_agent</v>
-      </c>
-      <c r="I55" s="9" t="str">
-        <f>M26</f>
-        <v>energy_in</v>
-      </c>
-      <c r="J55" s="9" t="str">
-        <f>N26</f>
-        <v>energy_out</v>
-      </c>
-      <c r="K55" s="9" t="str">
-        <f>Q26</f>
-        <v>price_pu_in</v>
-      </c>
-      <c r="L55" s="9" t="str">
-        <f>R26</f>
-        <v>price_pu_out</v>
-      </c>
-      <c r="M55" s="9" t="str">
-        <f>T26</f>
-        <v>price_in</v>
-      </c>
-      <c r="N55" s="9" t="str">
-        <f>U26</f>
-        <v>price_out</v>
-      </c>
-      <c r="O55" s="9" t="str">
-        <f>AA26</f>
-        <v>share_quality_XXX</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="str">
+        <v>pricing</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f>AK26</f>
+        <v>coupling</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B55,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B57" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C56" s="3" t="str">
-        <f t="shared" ref="C56:F56" si="11">_xlfn.XLOOKUP(C55,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C57" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D56" s="3" t="str">
+      <c r="D57" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f t="shared" ref="E57:G57" si="11">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="F57" s="3" t="str">
         <f t="shared" si="11"/>
         <v>categorical</v>
       </c>
-      <c r="E56" s="3" t="str">
+      <c r="G57" s="3" t="str">
         <f t="shared" si="11"/>
         <v>categorical</v>
       </c>
-      <c r="F56" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="H57" s="3" t="str">
+        <f t="shared" ref="H57" si="12">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="G56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(G55,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="I57" s="3" t="str">
+        <f t="shared" ref="I57" si="13">_xlfn.XLOOKUP(I56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="H56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(H55,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="J57" s="3" t="str">
+        <f t="shared" ref="J57" si="14">_xlfn.XLOOKUP(J56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="I56" s="3" t="str">
-        <f t="shared" ref="I56:O56" si="12">_xlfn.XLOOKUP(I55,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>uint64</v>
-      </c>
-      <c r="J56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>uint64</v>
-      </c>
-      <c r="K56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>int32</v>
-      </c>
-      <c r="L56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>int32</v>
-      </c>
-      <c r="M56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>int64</v>
-      </c>
-      <c r="N56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>int64</v>
-      </c>
-      <c r="O56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>int8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="str">
+      <c r="K57" s="3" t="str">
+        <f t="shared" ref="K57" si="15">_xlfn.XLOOKUP(K56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="L57" s="3" t="str">
+        <f t="shared" ref="L57" si="16">_xlfn.XLOOKUP(L56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B55,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B58" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C57" s="3" t="str">
-        <f t="shared" ref="C57:F57" si="13">_xlfn.XLOOKUP(C55,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C58" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D57" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="D58" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="E57" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="E58" s="3" t="str">
+        <f t="shared" ref="E58:G58" si="17">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="F57" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="17"/>
         <v>None</v>
       </c>
-      <c r="G57" s="3" t="str">
-        <f t="shared" ref="G57" si="14">_xlfn.XLOOKUP(G55,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="17"/>
         <v>None</v>
       </c>
-      <c r="H57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(H55,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="H58" s="3" t="str">
+        <f t="shared" ref="H58:L58" si="18">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="I57" s="3" t="str">
-        <f t="shared" ref="I57:O57" si="15">_xlfn.XLOOKUP(I55,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>Wh</v>
-      </c>
-      <c r="J57" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Wh</v>
-      </c>
-      <c r="K57" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>€e7/Wh</v>
-      </c>
-      <c r="L57" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>€e7/Wh</v>
-      </c>
-      <c r="M57" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>€e7</v>
-      </c>
-      <c r="N57" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>€e7</v>
-      </c>
-      <c r="O57" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>0-100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="str">
+      <c r="I58" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="L58" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B58" t="str">
-        <f>_xlfn.XLOOKUP(B55,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B59" t="str">
+        <f>_xlfn.XLOOKUP(B56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" ref="C58:F58" si="16">_xlfn.XLOOKUP(C55,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C59" t="str">
+        <f>_xlfn.XLOOKUP(C56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="16"/>
+      <c r="D59" t="str">
+        <f>_xlfn.XLOOKUP(D56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="16"/>
+      <c r="E59" t="str">
+        <f t="shared" ref="E59:G59" si="19">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>type of market</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="16"/>
+      <c r="F59" t="str">
+        <f t="shared" si="19"/>
         <v>name of the market</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" ref="G58" si="17">_xlfn.XLOOKUP(G55,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
-      </c>
-      <c r="H58" t="str">
-        <f>_xlfn.XLOOKUP(H55,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>agent id (also serves as main meter)</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" ref="I58:O58" si="18">_xlfn.XLOOKUP(I55,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>energy going into the meter</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="18"/>
-        <v>energy going out of the meter</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" si="18"/>
-        <v>spec. price for incoming energy</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="18"/>
-        <v>spec. price for outflowing energy</v>
-      </c>
-      <c r="M58" t="str">
-        <f t="shared" si="18"/>
-        <v>total price for incoming energy</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="18"/>
-        <v>total price for outflowing energy</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="18"/>
-        <v>quality share of energy (one column per type)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
+      <c r="G59" t="str">
+        <f t="shared" si="19"/>
+        <v>type of energy (electr., heat, etc.)</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" ref="H59:L59" si="20">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>action to be undertaken for market</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="20"/>
+        <v>clearing type (ex-ante, ex-post)</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="20"/>
+        <v>clearing method (pda, etc.)</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="20"/>
+        <v>pricing method (uniform, etc.)</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="20"/>
+        <v>coupling method (above, below)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="str">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B61" s="15" t="str">
+      <c r="B62" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C61" s="15" t="str">
+      <c r="C62" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D61" s="15" t="str">
+      <c r="D62" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E61" s="15" t="str">
+      <c r="E62" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="62" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="str">
+    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="str">
         <f>A6</f>
-        <v>meter_readings_cum</v>
-      </c>
-      <c r="B62" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A62,$A$4:$A$21,$B$4:$B$21)</f>
-        <v>Analyzer</v>
-      </c>
-      <c r="C62" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A62,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains the meter readings at each timestamp</v>
-      </c>
-      <c r="D62" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A62,$A$4:$A$21,$D$4:$D$21)</f>
+        <v>market_transactions</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A63,$A$4:$A$22,$B$4:$B$22)</f>
+        <v>Executor</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A63,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains all trades done in the markets</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A63,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E62" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A62,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E63" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A63,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-    </row>
     <row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="9" t="str">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="9" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C64" s="9" t="str">
+      <c r="C65" s="9" t="str">
+        <f>C26</f>
+        <v>timestep</v>
+      </c>
+      <c r="D65" s="9" t="str">
         <f>D26</f>
         <v>region</v>
       </c>
-      <c r="D64" s="9" t="str">
+      <c r="E65" s="9" t="str">
         <f>E26</f>
         <v>market</v>
       </c>
-      <c r="E64" s="9" t="str">
+      <c r="F65" s="9" t="str">
         <f>F26</f>
         <v>name</v>
       </c>
-      <c r="F64" s="9" t="str">
+      <c r="G65" s="9" t="str">
+        <f>G26</f>
+        <v>energy_type</v>
+      </c>
+      <c r="H65" s="9" t="str">
         <f>H26</f>
+        <v>type_transaction</v>
+      </c>
+      <c r="I65" s="9" t="str">
+        <f>I26</f>
         <v>id_agent</v>
       </c>
-      <c r="G64" s="9" t="str">
-        <f>K26</f>
-        <v>id_meter</v>
-      </c>
-      <c r="H64" s="9" t="str">
-        <f>M26</f>
+      <c r="J65" s="9" t="str">
+        <f>N26</f>
         <v>energy_in</v>
       </c>
-      <c r="I64" s="9" t="str">
-        <f>N26</f>
+      <c r="K65" s="9" t="str">
+        <f>O26</f>
         <v>energy_out</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="str">
+      <c r="L65" s="9" t="str">
+        <f>R26</f>
+        <v>price_pu_in</v>
+      </c>
+      <c r="M65" s="9" t="str">
+        <f>S26</f>
+        <v>price_pu_out</v>
+      </c>
+      <c r="N65" s="9" t="str">
+        <f>U26</f>
+        <v>price_in</v>
+      </c>
+      <c r="O65" s="9" t="str">
+        <f>V26</f>
+        <v>price_out</v>
+      </c>
+      <c r="P65" s="9" t="str">
+        <f>AB26</f>
+        <v>share_quality_XXX</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B64,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B66" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C65" s="3" t="str">
-        <f t="shared" ref="C65:E65" si="19">_xlfn.XLOOKUP(C64,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C66" s="3" t="str">
+        <f t="shared" ref="C66:F66" si="21">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>datetime</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>categorical</v>
       </c>
-      <c r="D65" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>categorical</v>
       </c>
-      <c r="E65" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>categorical</v>
       </c>
-      <c r="F65" s="3" t="str">
-        <f t="shared" ref="F65:I65" si="20">_xlfn.XLOOKUP(F64,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="G66" s="3" t="str">
+        <f t="shared" ref="G66" si="22">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="G65" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>str</v>
-      </c>
-      <c r="H65" s="3" t="str">
-        <f t="shared" si="20"/>
+      <c r="H66" s="3" t="str">
+        <f>_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="I66" s="3" t="str">
+        <f>_xlfn.XLOOKUP(I65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" ref="J66:P66" si="23">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
-      <c r="I65" s="3" t="str">
-        <f t="shared" si="20"/>
+      <c r="K66" s="3" t="str">
+        <f t="shared" si="23"/>
         <v>uint64</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="str">
+      <c r="L66" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>int32</v>
+      </c>
+      <c r="M66" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>int32</v>
+      </c>
+      <c r="N66" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>int64</v>
+      </c>
+      <c r="O66" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>int64</v>
+      </c>
+      <c r="P66" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>int8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B64,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B67" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C66" s="3" t="str">
-        <f t="shared" ref="C66:E66" si="21">_xlfn.XLOOKUP(C64,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C67" s="3" t="str">
+        <f t="shared" ref="C67:F67" si="24">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>s</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f t="shared" si="24"/>
         <v>None</v>
       </c>
-      <c r="D66" s="3" t="str">
-        <f t="shared" si="21"/>
+      <c r="E67" s="3" t="str">
+        <f t="shared" si="24"/>
         <v>None</v>
       </c>
-      <c r="E66" s="3" t="str">
-        <f t="shared" si="21"/>
+      <c r="F67" s="3" t="str">
+        <f t="shared" si="24"/>
         <v>None</v>
       </c>
-      <c r="F66" s="3" t="str">
-        <f t="shared" ref="F66:I66" si="22">_xlfn.XLOOKUP(F64,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="G67" s="3" t="str">
+        <f t="shared" ref="G67" si="25">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="G66" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="H67" s="3" t="str">
+        <f t="shared" ref="H67" si="26">_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="H66" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="I67" s="3" t="str">
+        <f>_xlfn.XLOOKUP(I65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>None</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" ref="J67:P67" si="27">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>Wh</v>
       </c>
-      <c r="I66" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Wh</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="str">
+      <c r="L67" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>€e7/Wh</v>
+      </c>
+      <c r="M67" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>€e7/Wh</v>
+      </c>
+      <c r="N67" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>€e7</v>
+      </c>
+      <c r="O67" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>€e7</v>
+      </c>
+      <c r="P67" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>0-100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B67" t="str">
-        <f>_xlfn.XLOOKUP(B64,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B68" t="str">
+        <f>_xlfn.XLOOKUP(B65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:E67" si="23">_xlfn.XLOOKUP(C64,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:F68" si="28">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>timestep (can be in future)</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="28"/>
         <v>region in which the market is</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="23"/>
+      <c r="E68" t="str">
+        <f t="shared" si="28"/>
         <v>type of market</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" si="23"/>
+      <c r="F68" t="str">
+        <f t="shared" si="28"/>
         <v>name of the market</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67:I67" si="24">_xlfn.XLOOKUP(F64,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="G68" t="str">
+        <f t="shared" ref="G68" si="29">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>type of energy (electr., heat, etc.)</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68" si="30">_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
+      </c>
+      <c r="I68" t="str">
+        <f>_xlfn.XLOOKUP(I65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" si="24"/>
-        <v>id of the (sub-)meter</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="24"/>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:P68" si="31">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>energy going into the meter</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" si="24"/>
+      <c r="K68" t="str">
+        <f t="shared" si="31"/>
         <v>energy going out of the meter</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="str">
+      <c r="L68" t="str">
+        <f t="shared" si="31"/>
+        <v>spec. price for incoming energy</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="31"/>
+        <v>spec. price for outflowing energy</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="31"/>
+        <v>total price for incoming energy</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="31"/>
+        <v>total price for outflowing energy</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="31"/>
+        <v>quality share of energy (one column per type)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B70" s="15" t="str">
+      <c r="B71" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C70" s="15" t="str">
+      <c r="C71" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D70" s="15" t="str">
+      <c r="D71" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E70" s="15" t="str">
+      <c r="E71" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="str">
+    <row r="72" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="str">
         <f>A7</f>
-        <v>meter_readings_delta</v>
-      </c>
-      <c r="B71" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A71,$A$4:$A$21,$B$4:$B$21)</f>
+        <v>meter_readings_cum</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A72,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Analyzer</v>
       </c>
-      <c r="C71" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A71,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains the meter delta readings at each timestamp</v>
-      </c>
-      <c r="D71" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A71,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C72" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A72,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains the meter readings at each timestamp</v>
+      </c>
+      <c r="D72" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A72,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E71" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A71,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E72" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A72,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="9" t="str">
+    <row r="73" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="9" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C73" s="9" t="str">
+      <c r="C74" s="9" t="str">
         <f>D26</f>
         <v>region</v>
       </c>
-      <c r="D73" s="9" t="str">
+      <c r="D74" s="9" t="str">
         <f>E26</f>
         <v>market</v>
       </c>
-      <c r="E73" s="9" t="str">
+      <c r="E74" s="9" t="str">
         <f>F26</f>
         <v>name</v>
       </c>
-      <c r="F73" s="9" t="str">
-        <f>H26</f>
+      <c r="F74" s="9" t="str">
+        <f>I26</f>
         <v>id_agent</v>
       </c>
-      <c r="G73" s="9" t="str">
-        <f>K26</f>
+      <c r="G74" s="9" t="str">
+        <f>L26</f>
         <v>id_meter</v>
       </c>
-      <c r="H73" s="9" t="str">
-        <f>M26</f>
+      <c r="H74" s="9" t="str">
+        <f>N26</f>
         <v>energy_in</v>
       </c>
-      <c r="I73" s="9" t="str">
-        <f>N26</f>
+      <c r="I74" s="9" t="str">
+        <f>O26</f>
         <v>energy_out</v>
       </c>
     </row>
-    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="str">
+    <row r="75" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B73,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B75" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C74" s="3" t="str">
-        <f t="shared" ref="C74:I74" si="25">_xlfn.XLOOKUP(C73,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C75" s="3" t="str">
+        <f t="shared" ref="C75:E75" si="32">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="D74" s="3" t="str">
-        <f t="shared" si="25"/>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="32"/>
         <v>categorical</v>
       </c>
-      <c r="E74" s="3" t="str">
-        <f t="shared" si="25"/>
+      <c r="E75" s="3" t="str">
+        <f t="shared" si="32"/>
         <v>categorical</v>
       </c>
-      <c r="F74" s="3" t="str">
-        <f t="shared" si="25"/>
+      <c r="F75" s="3" t="str">
+        <f t="shared" ref="F75:I75" si="33">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="G74" s="3" t="str">
-        <f t="shared" si="25"/>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>str</v>
       </c>
-      <c r="H74" s="3" t="str">
-        <f t="shared" si="25"/>
+      <c r="H75" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>uint64</v>
       </c>
-      <c r="I74" s="3" t="str">
-        <f t="shared" si="25"/>
+      <c r="I75" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>uint64</v>
       </c>
     </row>
-    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="str">
+    <row r="76" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B73,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B76" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C75" s="3" t="str">
-        <f t="shared" ref="C75:I75" si="26">_xlfn.XLOOKUP(C73,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C76" s="3" t="str">
+        <f t="shared" ref="C76:E76" si="34">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="D75" s="3" t="str">
-        <f t="shared" si="26"/>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>None</v>
       </c>
-      <c r="E75" s="3" t="str">
-        <f t="shared" si="26"/>
+      <c r="E76" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>None</v>
       </c>
-      <c r="F75" s="3" t="str">
-        <f t="shared" si="26"/>
+      <c r="F76" s="3" t="str">
+        <f t="shared" ref="F76:I76" si="35">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="G75" s="3" t="str">
-        <f t="shared" si="26"/>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="35"/>
         <v>None</v>
       </c>
-      <c r="H75" s="3" t="str">
-        <f t="shared" si="26"/>
+      <c r="H76" s="3" t="str">
+        <f t="shared" si="35"/>
         <v>Wh</v>
       </c>
-      <c r="I75" s="3" t="str">
-        <f t="shared" si="26"/>
+      <c r="I76" s="3" t="str">
+        <f t="shared" si="35"/>
         <v>Wh</v>
       </c>
     </row>
-    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="str">
+    <row r="77" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B76" t="str">
-        <f>_xlfn.XLOOKUP(B73,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B77" t="str">
+        <f>_xlfn.XLOOKUP(B74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" ref="C76:I76" si="27">_xlfn.XLOOKUP(C73,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77:E77" si="36">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="27"/>
+      <c r="D77" t="str">
+        <f t="shared" si="36"/>
         <v>type of market</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="27"/>
+      <c r="E77" t="str">
+        <f t="shared" si="36"/>
         <v>name of the market</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="27"/>
+      <c r="F77" t="str">
+        <f t="shared" ref="F77:I77" si="37">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="G76" t="str">
-        <f t="shared" si="27"/>
+      <c r="G77" t="str">
+        <f t="shared" si="37"/>
         <v>id of the (sub-)meter</v>
       </c>
-      <c r="H76" t="str">
-        <f t="shared" si="27"/>
+      <c r="H77" t="str">
+        <f t="shared" si="37"/>
         <v>energy going into the meter</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="27"/>
+      <c r="I77" t="str">
+        <f t="shared" si="37"/>
         <v>energy going out of the meter</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="str">
+    <row r="78" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B79" s="15" t="str">
+      <c r="B80" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C79" s="15" t="str">
+      <c r="C80" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D79" s="15" t="str">
+      <c r="D80" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E79" s="15" t="str">
+      <c r="E80" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A80,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="81" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="str">
+        <f>A8</f>
+        <v>meter_readings_delta</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A81,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Analyzer</v>
       </c>
-      <c r="C80" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A80,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains the prices and quantities sold by the retailer (can be extracted from market transactions)</v>
-      </c>
-      <c r="D80" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A80,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C81" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A81,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains the meter delta readings at each timestamp</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A81,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E80" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A80,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E81" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A81,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="str">
-        <f t="shared" ref="B82:G82" si="28">B26</f>
+    <row r="82" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="9" t="str">
+        <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="28"/>
-        <v>timestep</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="28"/>
+      <c r="C83" s="9" t="str">
+        <f>D26</f>
         <v>region</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="28"/>
+      <c r="D83" s="9" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="F82" t="str">
-        <f t="shared" si="28"/>
+      <c r="E83" s="9" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="G82" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>type_transaction</v>
-      </c>
-      <c r="H82" s="9" t="str">
-        <f>M26</f>
+      <c r="F83" s="9" t="str">
+        <f>I26</f>
+        <v>id_agent</v>
+      </c>
+      <c r="G83" s="9" t="str">
+        <f>L26</f>
+        <v>id_meter</v>
+      </c>
+      <c r="H83" s="9" t="str">
+        <f>N26</f>
         <v>energy_in</v>
       </c>
-      <c r="I82" s="9" t="str">
-        <f>N26</f>
+      <c r="I83" s="9" t="str">
+        <f>O26</f>
         <v>energy_out</v>
       </c>
-      <c r="J82" s="9" t="str">
-        <f>Q26</f>
-        <v>price_pu_in</v>
-      </c>
-      <c r="K82" s="9" t="str">
-        <f>R26</f>
-        <v>price_pu_out</v>
-      </c>
-      <c r="L82" s="9" t="str">
-        <f>T26</f>
-        <v>price_in</v>
-      </c>
-      <c r="M82" s="9" t="str">
-        <f>U26</f>
-        <v>price_out</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="str">
+    </row>
+    <row r="84" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B84" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B83,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C83" s="3" t="str">
-        <f t="shared" ref="C83" si="29">_xlfn.XLOOKUP(C82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>datetime</v>
-      </c>
-      <c r="D83" s="3" t="str">
-        <f t="shared" ref="D83" si="30">_xlfn.XLOOKUP(D82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C84" s="3" t="str">
+        <f t="shared" ref="C84:I84" si="38">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="E83" s="3" t="str">
-        <f t="shared" ref="E83" si="31">_xlfn.XLOOKUP(E82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="D84" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>categorical</v>
       </c>
-      <c r="F83" s="3" t="str">
-        <f t="shared" ref="F83" si="32">_xlfn.XLOOKUP(F82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="E84" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>categorical</v>
       </c>
-      <c r="G83" s="3" t="str">
-        <f t="shared" ref="G83" si="33">_xlfn.XLOOKUP(G82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="F84" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>categorical</v>
       </c>
-      <c r="H83" s="3" t="str">
-        <f t="shared" ref="H83" si="34">_xlfn.XLOOKUP(H82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>str</v>
+      </c>
+      <c r="H84" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>uint64</v>
       </c>
-      <c r="I83" s="3" t="str">
-        <f t="shared" ref="I83" si="35">_xlfn.XLOOKUP(I82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="I84" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>uint64</v>
       </c>
-      <c r="J83" s="3" t="str">
-        <f t="shared" ref="J83" si="36">_xlfn.XLOOKUP(J82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>int32</v>
-      </c>
-      <c r="K83" s="3" t="str">
-        <f t="shared" ref="K83" si="37">_xlfn.XLOOKUP(K82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>int32</v>
-      </c>
-      <c r="L83" s="3" t="str">
-        <f t="shared" ref="L83" si="38">_xlfn.XLOOKUP(L82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>int64</v>
-      </c>
-      <c r="M83" s="3" t="str">
-        <f t="shared" ref="M83" si="39">_xlfn.XLOOKUP(M82,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>int64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="str">
+    </row>
+    <row r="85" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B82,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B85" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B83,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C84" s="3" t="str">
-        <f t="shared" ref="C84:I84" si="40">_xlfn.XLOOKUP(C82,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>s</v>
-      </c>
-      <c r="D84" s="3" t="str">
-        <f t="shared" si="40"/>
+      <c r="C85" s="3" t="str">
+        <f t="shared" ref="C85:I85" si="39">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="E84" s="3" t="str">
-        <f t="shared" si="40"/>
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>None</v>
       </c>
-      <c r="F84" s="3" t="str">
-        <f t="shared" si="40"/>
+      <c r="E85" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>None</v>
       </c>
-      <c r="G84" s="3" t="str">
-        <f t="shared" si="40"/>
+      <c r="F85" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>None</v>
       </c>
-      <c r="H84" s="3" t="str">
-        <f t="shared" si="40"/>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>None</v>
+      </c>
+      <c r="H85" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>Wh</v>
       </c>
-      <c r="I84" s="3" t="str">
-        <f t="shared" si="40"/>
+      <c r="I85" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>Wh</v>
       </c>
-      <c r="J84" s="3" t="str">
-        <f t="shared" ref="J84:M84" si="41">_xlfn.XLOOKUP(J82,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>€e7/Wh</v>
-      </c>
-      <c r="K84" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>€e7/Wh</v>
-      </c>
-      <c r="L84" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>€e7</v>
-      </c>
-      <c r="M84" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>€e7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="str">
+    </row>
+    <row r="86" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B85" t="str">
-        <f>_xlfn.XLOOKUP(B82,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B86" t="str">
+        <f>_xlfn.XLOOKUP(B83,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" ref="C85:I85" si="42">_xlfn.XLOOKUP(C82,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>timestep (can be in future)</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="42"/>
+      <c r="C86" t="str">
+        <f t="shared" ref="C86:I86" si="40">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="42"/>
+      <c r="D86" t="str">
+        <f t="shared" si="40"/>
         <v>type of market</v>
       </c>
-      <c r="F85" t="str">
-        <f t="shared" si="42"/>
+      <c r="E86" t="str">
+        <f t="shared" si="40"/>
         <v>name of the market</v>
       </c>
-      <c r="G85" t="str">
-        <f t="shared" si="42"/>
-        <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="42"/>
+      <c r="F86" t="str">
+        <f t="shared" si="40"/>
+        <v>agent id (also serves as main meter)</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="40"/>
+        <v>id of the (sub-)meter</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="40"/>
         <v>energy going into the meter</v>
       </c>
-      <c r="I85" t="str">
-        <f t="shared" si="42"/>
+      <c r="I86" t="str">
+        <f t="shared" si="40"/>
         <v>energy going out of the meter</v>
       </c>
-      <c r="J85" t="str">
-        <f t="shared" ref="J85:M85" si="43">_xlfn.XLOOKUP(J82,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>spec. price for incoming energy</v>
-      </c>
-      <c r="K85" t="str">
-        <f t="shared" si="43"/>
-        <v>spec. price for outflowing energy</v>
-      </c>
-      <c r="L85" t="str">
-        <f t="shared" si="43"/>
-        <v>total price for incoming energy</v>
-      </c>
-      <c r="M85" t="str">
-        <f t="shared" si="43"/>
-        <v>total price for outflowing energy</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="str">
+    </row>
+    <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B88" s="15" t="str">
+      <c r="B89" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C88" s="15" t="str">
+      <c r="C89" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D88" s="15" t="str">
+      <c r="D89" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E88" s="15" t="str">
+      <c r="E89" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="89" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A89,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="90" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A90,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Analyzer</v>
       </c>
-      <c r="C89" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A89,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains summary of each timestamp</v>
-      </c>
-      <c r="D89" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A89,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C90" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A90,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains the prices and quantities sold by the retailer (can be extracted from market transactions)</v>
+      </c>
+      <c r="D90" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A90,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E89" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A89,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E90" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A90,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="str">
+    <row r="91" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C92" t="str">
+        <f>C26</f>
+        <v>timestep</v>
+      </c>
+      <c r="D92" t="str">
         <f>D26</f>
         <v>region</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" ref="D91:E91" si="44">E26</f>
+      <c r="E92" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="44"/>
+      <c r="F92" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="F91" s="9" t="str">
-        <f>G26</f>
+      <c r="G92" s="9" t="str">
+        <f>H26</f>
         <v>type_transaction</v>
       </c>
-      <c r="G91" t="str">
-        <f>H26</f>
-        <v>id_agent</v>
-      </c>
-      <c r="H91" s="9" t="str">
-        <f>M26</f>
+      <c r="H92" s="9" t="str">
+        <f>N26</f>
         <v>energy_in</v>
       </c>
-      <c r="I91" s="9" t="str">
-        <f>N26</f>
+      <c r="I92" s="9" t="str">
+        <f>O26</f>
         <v>energy_out</v>
       </c>
-      <c r="J91" s="9" t="str">
-        <f>Q26</f>
+      <c r="J92" s="9" t="str">
+        <f>R26</f>
         <v>price_pu_in</v>
       </c>
-      <c r="K91" s="9" t="str">
-        <f>R26</f>
+      <c r="K92" s="9" t="str">
+        <f>S26</f>
         <v>price_pu_out</v>
       </c>
-      <c r="L91" s="9" t="str">
-        <f>T26</f>
+      <c r="L92" s="9" t="str">
+        <f>U26</f>
         <v>price_in</v>
       </c>
-      <c r="M91" s="9" t="str">
-        <f>U26</f>
+      <c r="M92" s="9" t="str">
+        <f>V26</f>
         <v>price_out</v>
       </c>
-      <c r="N91" s="9" t="str">
-        <f>AA26</f>
-        <v>share_quality_XXX</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="str">
+    </row>
+    <row r="93" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B92" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B93" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C92" s="3" t="str">
-        <f t="shared" ref="C92" si="45">_xlfn.XLOOKUP(C91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C93" s="3" t="str">
+        <f t="shared" ref="C93" si="41">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>datetime</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f t="shared" ref="D93" si="42">_xlfn.XLOOKUP(D92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="D92" s="3" t="str">
-        <f t="shared" ref="D92" si="46">_xlfn.XLOOKUP(D91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="E93" s="3" t="str">
+        <f t="shared" ref="E93" si="43">_xlfn.XLOOKUP(E92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="E92" s="3" t="str">
-        <f t="shared" ref="E92" si="47">_xlfn.XLOOKUP(E91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="F93" s="3" t="str">
+        <f t="shared" ref="F93" si="44">_xlfn.XLOOKUP(F92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="F92" s="3" t="str">
-        <f t="shared" ref="F92" si="48">_xlfn.XLOOKUP(F91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="G93" s="3" t="str">
+        <f t="shared" ref="G93" si="45">_xlfn.XLOOKUP(G92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="G92" s="3" t="str">
-        <f t="shared" ref="G92" si="49">_xlfn.XLOOKUP(G91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>categorical</v>
-      </c>
-      <c r="H92" s="3" t="str">
-        <f t="shared" ref="H92" si="50">_xlfn.XLOOKUP(H91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="H93" s="3" t="str">
+        <f t="shared" ref="H93" si="46">_xlfn.XLOOKUP(H92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
-      <c r="I92" s="3" t="str">
-        <f t="shared" ref="I92" si="51">_xlfn.XLOOKUP(I91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="I93" s="3" t="str">
+        <f t="shared" ref="I93" si="47">_xlfn.XLOOKUP(I92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
-      <c r="J92" s="3" t="str">
-        <f t="shared" ref="J92" si="52">_xlfn.XLOOKUP(J91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="J93" s="3" t="str">
+        <f t="shared" ref="J93" si="48">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
-      <c r="K92" s="3" t="str">
-        <f t="shared" ref="K92" si="53">_xlfn.XLOOKUP(K91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="K93" s="3" t="str">
+        <f t="shared" ref="K93" si="49">_xlfn.XLOOKUP(K92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
-      <c r="L92" s="3" t="str">
-        <f t="shared" ref="L92" si="54">_xlfn.XLOOKUP(L91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="L93" s="3" t="str">
+        <f t="shared" ref="L93" si="50">_xlfn.XLOOKUP(L92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
-      <c r="M92" s="3" t="str">
-        <f t="shared" ref="M92:N92" si="55">_xlfn.XLOOKUP(M91,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="M93" s="3" t="str">
+        <f t="shared" ref="M93" si="51">_xlfn.XLOOKUP(M92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
-      <c r="N92" s="3" t="str">
-        <f t="shared" si="55"/>
-        <v>int8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="str">
+    </row>
+    <row r="94" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B93" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B91,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B94" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C93" s="3" t="str">
-        <f t="shared" ref="C93:E93" si="56">_xlfn.XLOOKUP(C91,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C94" s="3" t="str">
+        <f t="shared" ref="C94:I94" si="52">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>s</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>None</v>
       </c>
-      <c r="D93" s="3" t="str">
-        <f t="shared" si="56"/>
+      <c r="E94" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>None</v>
       </c>
-      <c r="E93" s="3" t="str">
-        <f t="shared" si="56"/>
+      <c r="F94" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>None</v>
       </c>
-      <c r="F93" s="3" t="str">
-        <f t="shared" ref="F93:M93" si="57">_xlfn.XLOOKUP(F91,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>None</v>
       </c>
-      <c r="G93" s="3" t="str">
-        <f t="shared" si="57"/>
-        <v>None</v>
-      </c>
-      <c r="H93" s="3" t="str">
-        <f t="shared" si="57"/>
+      <c r="H94" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>Wh</v>
       </c>
-      <c r="I93" s="3" t="str">
-        <f t="shared" si="57"/>
+      <c r="I94" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>Wh</v>
       </c>
-      <c r="J93" s="3" t="str">
-        <f t="shared" si="57"/>
+      <c r="J94" s="3" t="str">
+        <f t="shared" ref="J94:M94" si="53">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>€e7/Wh</v>
       </c>
-      <c r="K93" s="3" t="str">
-        <f t="shared" si="57"/>
+      <c r="K94" s="3" t="str">
+        <f t="shared" si="53"/>
         <v>€e7/Wh</v>
       </c>
-      <c r="L93" s="3" t="str">
-        <f t="shared" si="57"/>
+      <c r="L94" s="3" t="str">
+        <f t="shared" si="53"/>
         <v>€e7</v>
       </c>
-      <c r="M93" s="3" t="str">
-        <f t="shared" si="57"/>
+      <c r="M94" s="3" t="str">
+        <f t="shared" si="53"/>
         <v>€e7</v>
       </c>
-      <c r="N93" s="3" t="str">
-        <f t="shared" ref="N93" si="58">_xlfn.XLOOKUP(N91,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>0-100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="str">
+    </row>
+    <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B94" t="str">
-        <f>_xlfn.XLOOKUP(B91,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B95" t="str">
+        <f>_xlfn.XLOOKUP(B92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" ref="C94:E94" si="59">_xlfn.XLOOKUP(C91,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C95" t="str">
+        <f t="shared" ref="C95:I95" si="54">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>timestep (can be in future)</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="54"/>
         <v>region in which the market is</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="59"/>
+      <c r="E95" t="str">
+        <f t="shared" si="54"/>
         <v>type of market</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="59"/>
+      <c r="F95" t="str">
+        <f t="shared" si="54"/>
         <v>name of the market</v>
       </c>
-      <c r="F94" t="str">
-        <f t="shared" ref="F94:M94" si="60">_xlfn.XLOOKUP(F91,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="G95" t="str">
+        <f t="shared" si="54"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
-      <c r="G94" t="str">
-        <f t="shared" si="60"/>
-        <v>agent id (also serves as main meter)</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="60"/>
+      <c r="H95" t="str">
+        <f t="shared" si="54"/>
         <v>energy going into the meter</v>
       </c>
-      <c r="I94" t="str">
-        <f t="shared" si="60"/>
+      <c r="I95" t="str">
+        <f t="shared" si="54"/>
         <v>energy going out of the meter</v>
       </c>
-      <c r="J94" t="str">
-        <f t="shared" si="60"/>
+      <c r="J95" t="str">
+        <f t="shared" ref="J95:M95" si="55">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>spec. price for incoming energy</v>
       </c>
-      <c r="K94" t="str">
-        <f t="shared" si="60"/>
+      <c r="K95" t="str">
+        <f t="shared" si="55"/>
         <v>spec. price for outflowing energy</v>
       </c>
-      <c r="L94" t="str">
-        <f t="shared" si="60"/>
+      <c r="L95" t="str">
+        <f t="shared" si="55"/>
         <v>total price for incoming energy</v>
       </c>
-      <c r="M94" t="str">
-        <f t="shared" si="60"/>
+      <c r="M95" t="str">
+        <f t="shared" si="55"/>
         <v>total price for outflowing energy</v>
       </c>
-      <c r="N94" t="str">
-        <f t="shared" ref="N94" si="61">_xlfn.XLOOKUP(N91,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>quality share of energy (one column per type)</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="str">
+    </row>
+    <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B97" s="15" t="str">
+      <c r="B98" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C97" s="15" t="str">
+      <c r="C98" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D97" s="15" t="str">
+      <c r="D98" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E97" s="15" t="str">
+      <c r="E98" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="98" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A98,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="99" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A99,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Analyzer</v>
       </c>
-      <c r="C98" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A98,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains info about agents</v>
-      </c>
-      <c r="D98" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A98,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C99" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A99,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains summary of each timestamp</v>
+      </c>
+      <c r="D99" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A99,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E98" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A98,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E99" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A99,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-    </row>
     <row r="100" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="str">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="str">
+        <f>B26</f>
+        <v>timestamp</v>
+      </c>
+      <c r="C101" t="str">
         <f>D26</f>
         <v>region</v>
       </c>
-      <c r="C100" t="str">
-        <f t="shared" ref="C100:D100" si="62">E26</f>
+      <c r="D101" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="62"/>
+      <c r="E101" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="E100" t="str">
+      <c r="F101" s="9" t="str">
         <f>H26</f>
+        <v>type_transaction</v>
+      </c>
+      <c r="G101" t="str">
+        <f>I26</f>
         <v>id_agent</v>
       </c>
-      <c r="F100" t="str">
-        <f>M26</f>
+      <c r="H101" s="9" t="str">
+        <f>N26</f>
         <v>energy_in</v>
       </c>
-      <c r="G100" t="str">
-        <f>N26</f>
+      <c r="I101" s="9" t="str">
+        <f>O26</f>
         <v>energy_out</v>
       </c>
-      <c r="H100" t="str">
-        <f>O26</f>
-        <v>energy_used</v>
-      </c>
-      <c r="I100" s="9" t="str">
-        <f>T26</f>
+      <c r="J101" s="9" t="str">
+        <f>R26</f>
+        <v>price_pu_in</v>
+      </c>
+      <c r="K101" s="9" t="str">
+        <f>S26</f>
+        <v>price_pu_out</v>
+      </c>
+      <c r="L101" s="9" t="str">
+        <f>U26</f>
         <v>price_in</v>
       </c>
-      <c r="J100" s="9" t="str">
-        <f>U26</f>
+      <c r="M101" s="9" t="str">
+        <f>V26</f>
         <v>price_out</v>
       </c>
-      <c r="K100" s="9" t="str">
-        <f>Y26</f>
-        <v>balance_account</v>
-      </c>
-      <c r="L100" s="9" t="str">
-        <f>AA26</f>
+      <c r="N101" s="9" t="str">
+        <f>AB26</f>
         <v>share_quality_XXX</v>
       </c>
-      <c r="M100" s="9" t="str">
-        <f>AC26</f>
-        <v>type_plants</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="str">
+    </row>
+    <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B101" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B102" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>datetime</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f t="shared" ref="C102" si="56">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="C101" s="3" t="str">
-        <f t="shared" ref="C101" si="63">_xlfn.XLOOKUP(C100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="D102" s="3" t="str">
+        <f t="shared" ref="D102" si="57">_xlfn.XLOOKUP(D101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="D101" s="3" t="str">
-        <f t="shared" ref="D101" si="64">_xlfn.XLOOKUP(D100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="E102" s="3" t="str">
+        <f t="shared" ref="E102" si="58">_xlfn.XLOOKUP(E101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="E101" s="3" t="str">
-        <f t="shared" ref="E101" si="65">_xlfn.XLOOKUP(E100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="F102" s="3" t="str">
+        <f t="shared" ref="F102" si="59">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="F101" s="3" t="str">
-        <f t="shared" ref="F101" si="66">_xlfn.XLOOKUP(F100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="G102" s="3" t="str">
+        <f t="shared" ref="G102" si="60">_xlfn.XLOOKUP(G101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="H102" s="3" t="str">
+        <f t="shared" ref="H102" si="61">_xlfn.XLOOKUP(H101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
-      <c r="G101" s="3" t="str">
-        <f t="shared" ref="G101" si="67">_xlfn.XLOOKUP(G100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="I102" s="3" t="str">
+        <f t="shared" ref="I102" si="62">_xlfn.XLOOKUP(I101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
-      <c r="H101" s="3" t="str">
-        <f>_xlfn.XLOOKUP(H100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>uint64</v>
-      </c>
-      <c r="I101" s="3" t="str">
-        <f t="shared" ref="I101" si="68">_xlfn.XLOOKUP(I100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="J102" s="3" t="str">
+        <f t="shared" ref="J102" si="63">_xlfn.XLOOKUP(J101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>int32</v>
+      </c>
+      <c r="K102" s="3" t="str">
+        <f t="shared" ref="K102" si="64">_xlfn.XLOOKUP(K101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>int32</v>
+      </c>
+      <c r="L102" s="3" t="str">
+        <f t="shared" ref="L102" si="65">_xlfn.XLOOKUP(L101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
-      <c r="J101" s="3" t="str">
-        <f t="shared" ref="J101" si="69">_xlfn.XLOOKUP(J100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="M102" s="3" t="str">
+        <f t="shared" ref="M102:N102" si="66">_xlfn.XLOOKUP(M101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
-      <c r="K101" s="3" t="str">
-        <f t="shared" ref="K101" si="70">_xlfn.XLOOKUP(K100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>int64</v>
-      </c>
-      <c r="L101" s="3" t="str">
-        <f t="shared" ref="L101:M101" si="71">_xlfn.XLOOKUP(L100,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="N102" s="3" t="str">
+        <f t="shared" si="66"/>
         <v>int8</v>
       </c>
-      <c r="M101" s="3" t="str">
-        <f t="shared" si="71"/>
-        <v>categorical</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="str">
+    </row>
+    <row r="103" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B102" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B100,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B103" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>s</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f t="shared" ref="C103:E103" si="67">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="C102" s="3" t="str">
-        <f t="shared" ref="C102:L102" si="72">_xlfn.XLOOKUP(C100,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="D103" s="3" t="str">
+        <f t="shared" si="67"/>
         <v>None</v>
       </c>
-      <c r="D102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="E103" s="3" t="str">
+        <f t="shared" si="67"/>
         <v>None</v>
       </c>
-      <c r="E102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="F103" s="3" t="str">
+        <f t="shared" ref="F103:M103" si="68">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="F102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="G103" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>None</v>
+      </c>
+      <c r="H103" s="3" t="str">
+        <f t="shared" si="68"/>
         <v>Wh</v>
       </c>
-      <c r="G102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="I103" s="3" t="str">
+        <f t="shared" si="68"/>
         <v>Wh</v>
       </c>
-      <c r="H102" s="3" t="str">
-        <f>_xlfn.XLOOKUP(H100,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>Wh</v>
-      </c>
-      <c r="I102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="J103" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>€e7/Wh</v>
+      </c>
+      <c r="K103" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>€e7/Wh</v>
+      </c>
+      <c r="L103" s="3" t="str">
+        <f t="shared" si="68"/>
         <v>€e7</v>
       </c>
-      <c r="J102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="M103" s="3" t="str">
+        <f t="shared" si="68"/>
         <v>€e7</v>
       </c>
-      <c r="K102" s="3" t="str">
-        <f t="shared" si="72"/>
-        <v>€e7</v>
-      </c>
-      <c r="L102" s="3" t="str">
-        <f t="shared" si="72"/>
+      <c r="N103" s="3" t="str">
+        <f t="shared" ref="N103" si="69">_xlfn.XLOOKUP(N101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>0-100</v>
       </c>
-      <c r="M102" s="3" t="str">
-        <f t="shared" ref="M102" si="73">_xlfn.XLOOKUP(M100,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>none</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="str">
+    </row>
+    <row r="104" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B103" t="str">
-        <f>_xlfn.XLOOKUP(B100,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B104" t="str">
+        <f>_xlfn.XLOOKUP(B101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>current timestamp</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ref="C104:E104" si="70">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
-      <c r="C103" t="str">
-        <f t="shared" ref="C103:L103" si="74">_xlfn.XLOOKUP(C100,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="D104" t="str">
+        <f t="shared" si="70"/>
         <v>type of market</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="74"/>
+      <c r="E104" t="str">
+        <f t="shared" si="70"/>
         <v>name of the market</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="74"/>
+      <c r="F104" t="str">
+        <f t="shared" ref="F104:M104" si="71">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="71"/>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="F103" t="str">
-        <f t="shared" si="74"/>
+      <c r="H104" t="str">
+        <f t="shared" si="71"/>
         <v>energy going into the meter</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="74"/>
+      <c r="I104" t="str">
+        <f t="shared" si="71"/>
         <v>energy going out of the meter</v>
       </c>
-      <c r="H103" t="str">
-        <f>_xlfn.XLOOKUP(H100,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>used energy over all timesteps</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="74"/>
+      <c r="J104" t="str">
+        <f t="shared" si="71"/>
+        <v>spec. price for incoming energy</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="71"/>
+        <v>spec. price for outflowing energy</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="71"/>
         <v>total price for incoming energy</v>
       </c>
-      <c r="J103" t="str">
-        <f t="shared" si="74"/>
+      <c r="M104" t="str">
+        <f t="shared" si="71"/>
         <v>total price for outflowing energy</v>
       </c>
-      <c r="K103" t="str">
-        <f t="shared" si="74"/>
-        <v>balance of bank account</v>
-      </c>
-      <c r="L103" t="str">
-        <f t="shared" si="74"/>
+      <c r="N104" t="str">
+        <f t="shared" ref="N104" si="72">_xlfn.XLOOKUP(N101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>quality share of energy (one column per type)</v>
       </c>
-      <c r="M103" t="str">
-        <f t="shared" ref="M103" si="75">_xlfn.XLOOKUP(M100,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>types of plants (per agent)</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="str">
+    </row>
+    <row r="105" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B106" s="15" t="str">
+      <c r="B107" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C106" s="15" t="str">
+      <c r="C107" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D106" s="15" t="str">
+      <c r="D107" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E106" s="15" t="str">
+      <c r="E107" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="107" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A107,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="108" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A108,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Analyzer</v>
       </c>
-      <c r="C107" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A107,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains info about meters</v>
-      </c>
-      <c r="D107" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A107,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C108" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A108,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains info about agents</v>
+      </c>
+      <c r="D108" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A108,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E107" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A107,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E108" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A108,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-    </row>
     <row r="109" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="9" t="str">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="str">
         <f>D26</f>
         <v>region</v>
       </c>
-      <c r="C109" s="9" t="str">
-        <f t="shared" ref="C109:D109" si="76">E26</f>
+      <c r="C110" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="D109" s="9" t="str">
-        <f t="shared" si="76"/>
+      <c r="D110" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="E109" s="9" t="str">
-        <f>H26</f>
+      <c r="E110" t="str">
+        <f>I26</f>
         <v>id_agent</v>
       </c>
-      <c r="F109" s="9" t="str">
-        <f>K26</f>
-        <v>id_meter</v>
-      </c>
-      <c r="G109" s="9" t="str">
+      <c r="F110" t="str">
+        <f>N26</f>
+        <v>energy_in</v>
+      </c>
+      <c r="G110" t="str">
+        <f>O26</f>
+        <v>energy_out</v>
+      </c>
+      <c r="H110" t="str">
+        <f>P26</f>
+        <v>energy_used</v>
+      </c>
+      <c r="I110" s="9" t="str">
+        <f>U26</f>
+        <v>price_in</v>
+      </c>
+      <c r="J110" s="9" t="str">
+        <f>V26</f>
+        <v>price_out</v>
+      </c>
+      <c r="K110" s="9" t="str">
+        <f>Z26</f>
+        <v>balance_account</v>
+      </c>
+      <c r="L110" s="9" t="str">
         <f>AB26</f>
-        <v>type_meter</v>
-      </c>
-      <c r="H109" s="9" t="str">
-        <f>Z26</f>
-        <v>quality</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="str">
+        <v>share_quality_XXX</v>
+      </c>
+      <c r="M110" s="9" t="str">
+        <f>AD26</f>
+        <v>type_plants</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B110" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B111" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="C110" s="3" t="str">
-        <f t="shared" ref="C110" si="77">_xlfn.XLOOKUP(C109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C111" s="3" t="str">
+        <f t="shared" ref="C111" si="73">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="D110" s="3" t="str">
-        <f t="shared" ref="D110" si="78">_xlfn.XLOOKUP(D109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="D111" s="3" t="str">
+        <f t="shared" ref="D111" si="74">_xlfn.XLOOKUP(D110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="E110" s="3" t="str">
-        <f t="shared" ref="E110" si="79">_xlfn.XLOOKUP(E109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="E111" s="3" t="str">
+        <f t="shared" ref="E111" si="75">_xlfn.XLOOKUP(E110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="F110" s="3" t="str">
-        <f t="shared" ref="F110" si="80">_xlfn.XLOOKUP(F109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>str</v>
-      </c>
-      <c r="G110" s="3" t="str">
-        <f t="shared" ref="G110" si="81">_xlfn.XLOOKUP(G109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="F111" s="3" t="str">
+        <f t="shared" ref="F111" si="76">_xlfn.XLOOKUP(F110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>uint64</v>
+      </c>
+      <c r="G111" s="3" t="str">
+        <f t="shared" ref="G111" si="77">_xlfn.XLOOKUP(G110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>uint64</v>
+      </c>
+      <c r="H111" s="3" t="str">
+        <f>_xlfn.XLOOKUP(H110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>uint64</v>
+      </c>
+      <c r="I111" s="3" t="str">
+        <f t="shared" ref="I111" si="78">_xlfn.XLOOKUP(I110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>int64</v>
+      </c>
+      <c r="J111" s="3" t="str">
+        <f t="shared" ref="J111" si="79">_xlfn.XLOOKUP(J110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>int64</v>
+      </c>
+      <c r="K111" s="3" t="str">
+        <f t="shared" ref="K111" si="80">_xlfn.XLOOKUP(K110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>int64</v>
+      </c>
+      <c r="L111" s="3" t="str">
+        <f t="shared" ref="L111:M111" si="81">_xlfn.XLOOKUP(L110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>int8</v>
+      </c>
+      <c r="M111" s="3" t="str">
+        <f t="shared" si="81"/>
         <v>categorical</v>
       </c>
-      <c r="H110" s="3" t="str">
-        <f t="shared" ref="H110" si="82">_xlfn.XLOOKUP(H109,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>categorical</v>
-      </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="str">
+    </row>
+    <row r="112" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B111" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B109,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B112" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="C111" s="3" t="str">
-        <f t="shared" ref="C111:H111" si="83">_xlfn.XLOOKUP(C109,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C112" s="3" t="str">
+        <f t="shared" ref="C112:L112" si="82">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="D111" s="3" t="str">
-        <f t="shared" si="83"/>
+      <c r="D112" s="3" t="str">
+        <f t="shared" si="82"/>
         <v>None</v>
       </c>
-      <c r="E111" s="3" t="str">
-        <f t="shared" si="83"/>
+      <c r="E112" s="3" t="str">
+        <f t="shared" si="82"/>
         <v>None</v>
       </c>
-      <c r="F111" s="3" t="str">
-        <f t="shared" si="83"/>
+      <c r="F112" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>Wh</v>
+      </c>
+      <c r="G112" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>Wh</v>
+      </c>
+      <c r="H112" s="3" t="str">
+        <f>_xlfn.XLOOKUP(H110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>Wh</v>
+      </c>
+      <c r="I112" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>€e7</v>
+      </c>
+      <c r="J112" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>€e7</v>
+      </c>
+      <c r="K112" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>€e7</v>
+      </c>
+      <c r="L112" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>0-100</v>
+      </c>
+      <c r="M112" s="3" t="str">
+        <f t="shared" ref="M112" si="83">_xlfn.XLOOKUP(M110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="G111" s="3" t="str">
-        <f t="shared" si="83"/>
-        <v>None</v>
-      </c>
-      <c r="H111" s="3" t="str">
-        <f t="shared" si="83"/>
-        <v>None</v>
-      </c>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="str">
+    </row>
+    <row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B112" t="str">
-        <f>_xlfn.XLOOKUP(B109,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B113" t="str">
+        <f>_xlfn.XLOOKUP(B110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
-      <c r="C112" t="str">
-        <f t="shared" ref="C112:H112" si="84">_xlfn.XLOOKUP(C109,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C113" t="str">
+        <f t="shared" ref="C113:L113" si="84">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>type of market</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D113" t="str">
         <f t="shared" si="84"/>
         <v>name of the market</v>
       </c>
-      <c r="E112" t="str">
+      <c r="E113" t="str">
         <f t="shared" si="84"/>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F113" t="str">
         <f t="shared" si="84"/>
-        <v>id of the (sub-)meter</v>
-      </c>
-      <c r="G112" t="str">
+        <v>energy going into the meter</v>
+      </c>
+      <c r="G113" t="str">
         <f t="shared" si="84"/>
-        <v>type of meter</v>
-      </c>
-      <c r="H112" t="str">
+        <v>energy going out of the meter</v>
+      </c>
+      <c r="H113" t="str">
+        <f>_xlfn.XLOOKUP(H110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>used energy over all timesteps</v>
+      </c>
+      <c r="I113" t="str">
         <f t="shared" si="84"/>
-        <v>quality of energy</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="str">
+        <v>total price for incoming energy</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="84"/>
+        <v>total price for outflowing energy</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="84"/>
+        <v>balance of bank account</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="84"/>
+        <v>quality share of energy (one column per type)</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" ref="M113" si="85">_xlfn.XLOOKUP(M110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>types of plants (per agent)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B115" s="15" t="str">
+      <c r="B116" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C115" s="15" t="str">
+      <c r="C116" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D115" s="15" t="str">
+      <c r="D116" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E115" s="15" t="str">
+      <c r="E116" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="116" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A116,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="117" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A117,$A$4:$A$22,$B$4:$B$22)</f>
+        <v>Analyzer</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A117,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains info about meters</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A117,$A$4:$A$22,$D$4:$D$22)</f>
+        <v>Markets</v>
+      </c>
+      <c r="E117" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A117,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="9" t="str">
+        <f>D26</f>
+        <v>region</v>
+      </c>
+      <c r="C119" s="9" t="str">
+        <f>E26</f>
+        <v>market</v>
+      </c>
+      <c r="D119" s="9" t="str">
+        <f>F26</f>
+        <v>name</v>
+      </c>
+      <c r="E119" s="9" t="str">
+        <f>I26</f>
+        <v>id_agent</v>
+      </c>
+      <c r="F119" s="9" t="str">
+        <f>L26</f>
+        <v>id_meter</v>
+      </c>
+      <c r="G119" s="9" t="str">
+        <f>AC26</f>
+        <v>type_meter</v>
+      </c>
+      <c r="H119" s="9" t="str">
+        <f>AA26</f>
+        <v>quality</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="str">
+        <f>$A$27</f>
+        <v>dtype</v>
+      </c>
+      <c r="B120" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="C120" s="3" t="str">
+        <f t="shared" ref="C120" si="86">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="D120" s="3" t="str">
+        <f t="shared" ref="D120" si="87">_xlfn.XLOOKUP(D119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="E120" s="3" t="str">
+        <f t="shared" ref="E120" si="88">_xlfn.XLOOKUP(E119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="F120" s="3" t="str">
+        <f t="shared" ref="F120" si="89">_xlfn.XLOOKUP(F119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>str</v>
+      </c>
+      <c r="G120" s="3" t="str">
+        <f t="shared" ref="G120" si="90">_xlfn.XLOOKUP(G119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="H120" s="3" t="str">
+        <f t="shared" ref="H120" si="91">_xlfn.XLOOKUP(H119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>categorical</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="str">
+        <f>$A$28</f>
+        <v>unit</v>
+      </c>
+      <c r="B121" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B119,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>None</v>
+      </c>
+      <c r="C121" s="3" t="str">
+        <f t="shared" ref="C121:H121" si="92">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>None</v>
+      </c>
+      <c r="D121" s="3" t="str">
+        <f t="shared" si="92"/>
+        <v>None</v>
+      </c>
+      <c r="E121" s="3" t="str">
+        <f t="shared" si="92"/>
+        <v>None</v>
+      </c>
+      <c r="F121" s="3" t="str">
+        <f t="shared" si="92"/>
+        <v>None</v>
+      </c>
+      <c r="G121" s="3" t="str">
+        <f t="shared" si="92"/>
+        <v>None</v>
+      </c>
+      <c r="H121" s="3" t="str">
+        <f t="shared" si="92"/>
+        <v>None</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="str">
+        <f>$A$29</f>
+        <v>description</v>
+      </c>
+      <c r="B122" t="str">
+        <f>_xlfn.XLOOKUP(B119,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>region in which the market is</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" ref="C122:H122" si="93">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>type of market</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="93"/>
+        <v>name of the market</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="93"/>
+        <v>agent id (also serves as main meter)</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="93"/>
+        <v>id of the (sub-)meter</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="93"/>
+        <v>type of meter</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="93"/>
+        <v>quality of energy</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="str">
+        <f>$A$3</f>
+        <v>Table</v>
+      </c>
+      <c r="B125" s="15" t="str">
+        <f>$B$3</f>
+        <v>Section</v>
+      </c>
+      <c r="C125" s="15" t="str">
+        <f>$C$3</f>
+        <v>Description</v>
+      </c>
+      <c r="D125" s="15" t="str">
+        <f>$D$3</f>
+        <v>Class</v>
+      </c>
+      <c r="E125" s="15" t="str">
+        <f>$E$3</f>
+        <v>Saved</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A126,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C116" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A116,$A$4:$A$21,$C$4:$C$21)</f>
+      <c r="C126" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A126,$A$4:$A$22,$C$4:$C$22)</f>
         <v>contains all cleared bids</v>
       </c>
-      <c r="D116" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A116,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="D126" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A126,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E116" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A116,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-    </row>
-    <row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="str">
+      <c r="E126" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A126,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C118" t="str">
-        <f t="shared" ref="C118:F118" si="85">C26</f>
+      <c r="C128" t="str">
+        <f>C26</f>
         <v>timestep</v>
       </c>
-      <c r="D118" t="str">
-        <f t="shared" si="85"/>
+      <c r="D128" t="str">
+        <f>D26</f>
         <v>region</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="85"/>
+      <c r="E128" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="F118" t="str">
-        <f t="shared" si="85"/>
+      <c r="F128" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="G118" s="9" t="str">
-        <f>G26</f>
+      <c r="G128" s="9" t="str">
+        <f>H26</f>
         <v>type_transaction</v>
       </c>
-      <c r="H118" t="str">
-        <f>H26</f>
+      <c r="H128" t="str">
+        <f>I26</f>
         <v>id_agent</v>
       </c>
-      <c r="I118" s="9" t="str">
-        <f>M26</f>
+      <c r="I128" s="9" t="str">
+        <f>N26</f>
         <v>energy_in</v>
       </c>
-      <c r="J118" s="9" t="str">
-        <f>Q26</f>
+      <c r="J128" s="9" t="str">
+        <f>R26</f>
         <v>price_pu_in</v>
       </c>
-      <c r="K118" s="9" t="str">
-        <f>T26</f>
+      <c r="K128" s="9" t="str">
+        <f>U26</f>
         <v>price_in</v>
       </c>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-    </row>
-    <row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="str">
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+    </row>
+    <row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B119" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B129" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C119" s="3" t="str">
-        <f t="shared" ref="C119:F119" si="86">_xlfn.XLOOKUP(C118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C129" s="3" t="str">
+        <f t="shared" ref="C129:F129" si="94">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D119" s="3" t="str">
-        <f t="shared" si="86"/>
+      <c r="D129" s="3" t="str">
+        <f t="shared" si="94"/>
         <v>categorical</v>
       </c>
-      <c r="E119" s="3" t="str">
-        <f t="shared" si="86"/>
+      <c r="E129" s="3" t="str">
+        <f t="shared" si="94"/>
         <v>categorical</v>
       </c>
-      <c r="F119" s="3" t="str">
-        <f t="shared" si="86"/>
+      <c r="F129" s="3" t="str">
+        <f t="shared" si="94"/>
         <v>categorical</v>
       </c>
-      <c r="G119" s="3" t="str">
-        <f>_xlfn.XLOOKUP(G118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="G129" s="3" t="str">
+        <f>_xlfn.XLOOKUP(G128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="H119" s="3" t="str">
-        <f>_xlfn.XLOOKUP(H118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="H129" s="3" t="str">
+        <f>_xlfn.XLOOKUP(H128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="I119" s="3" t="str">
-        <f>_xlfn.XLOOKUP(I118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="I129" s="3" t="str">
+        <f>_xlfn.XLOOKUP(I128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
-      <c r="J119" s="3" t="str">
-        <f>_xlfn.XLOOKUP(J118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="J129" s="3" t="str">
+        <f>_xlfn.XLOOKUP(J128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
-      <c r="K119" s="3" t="str">
-        <f>_xlfn.XLOOKUP(K118,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="K129" s="3" t="str">
+        <f>_xlfn.XLOOKUP(K128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="str">
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B120" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B130" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C120" s="3" t="str">
-        <f t="shared" ref="C120:F120" si="87">_xlfn.XLOOKUP(C118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C130" s="3" t="str">
+        <f t="shared" ref="C130:F130" si="95">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D120" s="3" t="str">
-        <f t="shared" si="87"/>
+      <c r="D130" s="3" t="str">
+        <f t="shared" si="95"/>
         <v>None</v>
       </c>
-      <c r="E120" s="3" t="str">
-        <f t="shared" si="87"/>
+      <c r="E130" s="3" t="str">
+        <f t="shared" si="95"/>
         <v>None</v>
       </c>
-      <c r="F120" s="3" t="str">
-        <f t="shared" si="87"/>
+      <c r="F130" s="3" t="str">
+        <f t="shared" si="95"/>
         <v>None</v>
       </c>
-      <c r="G120" s="3" t="str">
-        <f>_xlfn.XLOOKUP(G118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="G130" s="3" t="str">
+        <f>_xlfn.XLOOKUP(G128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="H120" s="3" t="str">
-        <f>_xlfn.XLOOKUP(H118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="H130" s="3" t="str">
+        <f>_xlfn.XLOOKUP(H128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="I120" s="3" t="str">
-        <f>_xlfn.XLOOKUP(I118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="I130" s="3" t="str">
+        <f>_xlfn.XLOOKUP(I128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>Wh</v>
       </c>
-      <c r="J120" s="3" t="str">
-        <f>_xlfn.XLOOKUP(J118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="J130" s="3" t="str">
+        <f>_xlfn.XLOOKUP(J128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>€e7/Wh</v>
       </c>
-      <c r="K120" s="3" t="str">
-        <f>_xlfn.XLOOKUP(K118,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="K130" s="3" t="str">
+        <f>_xlfn.XLOOKUP(K128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>€e7</v>
       </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-    </row>
-    <row r="121" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="str">
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B121" t="str">
-        <f>_xlfn.XLOOKUP(B118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B131" t="str">
+        <f>_xlfn.XLOOKUP(B128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C121" t="str">
-        <f t="shared" ref="C121:F121" si="88">_xlfn.XLOOKUP(C118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:F131" si="96">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="88"/>
+      <c r="D131" t="str">
+        <f t="shared" si="96"/>
         <v>region in which the market is</v>
       </c>
-      <c r="E121" t="str">
-        <f t="shared" si="88"/>
+      <c r="E131" t="str">
+        <f t="shared" si="96"/>
         <v>type of market</v>
       </c>
-      <c r="F121" t="str">
-        <f t="shared" si="88"/>
+      <c r="F131" t="str">
+        <f t="shared" si="96"/>
         <v>name of the market</v>
       </c>
-      <c r="G121" t="str">
-        <f>_xlfn.XLOOKUP(G118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="G131" t="str">
+        <f>_xlfn.XLOOKUP(G128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
-      <c r="H121" t="str">
-        <f>_xlfn.XLOOKUP(H118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="H131" t="str">
+        <f>_xlfn.XLOOKUP(H128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="I121" t="str">
-        <f>_xlfn.XLOOKUP(I118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="I131" t="str">
+        <f>_xlfn.XLOOKUP(I128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>energy going into the meter</v>
       </c>
-      <c r="J121" t="str">
-        <f>_xlfn.XLOOKUP(J118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="J131" t="str">
+        <f>_xlfn.XLOOKUP(J128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>spec. price for incoming energy</v>
       </c>
-      <c r="K121" t="str">
-        <f>_xlfn.XLOOKUP(K118,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="K131" t="str">
+        <f>_xlfn.XLOOKUP(K128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>total price for incoming energy</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="str">
+    <row r="132" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B124" s="15" t="str">
+      <c r="B134" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C124" s="15" t="str">
+      <c r="C134" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D124" s="15" t="str">
+      <c r="D134" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E124" s="15" t="str">
+      <c r="E134" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="125" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B125" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A125,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A135,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C125" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A125,$A$4:$A$21,$C$4:$C$21)</f>
+      <c r="C135" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A135,$A$4:$A$22,$C$4:$C$22)</f>
         <v>contains all uncleared bids</v>
       </c>
-      <c r="D125" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A125,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="D135" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A135,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E125" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A125,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="str">
-        <f>B118</f>
+      <c r="E135" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A135,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="str">
+        <f>B128</f>
         <v>timestamp</v>
       </c>
-      <c r="C127" t="str">
-        <f t="shared" ref="C127:H127" si="89">C118</f>
+      <c r="C137" t="str">
+        <f t="shared" ref="C137:H137" si="97">C128</f>
         <v>timestep</v>
       </c>
-      <c r="D127" t="str">
-        <f t="shared" si="89"/>
+      <c r="D137" t="str">
+        <f t="shared" si="97"/>
         <v>region</v>
       </c>
-      <c r="E127" t="str">
-        <f t="shared" si="89"/>
+      <c r="E137" t="str">
+        <f t="shared" si="97"/>
         <v>market</v>
       </c>
-      <c r="F127" t="str">
-        <f t="shared" si="89"/>
+      <c r="F137" t="str">
+        <f t="shared" si="97"/>
         <v>name</v>
       </c>
-      <c r="G127" t="str">
-        <f t="shared" si="89"/>
+      <c r="G137" t="str">
+        <f t="shared" si="97"/>
         <v>type_transaction</v>
       </c>
-      <c r="H127" t="str">
-        <f t="shared" si="89"/>
+      <c r="H137" t="str">
+        <f t="shared" si="97"/>
         <v>id_agent</v>
       </c>
-      <c r="I127" t="str">
-        <f>I118</f>
+      <c r="I137" t="str">
+        <f>I128</f>
         <v>energy_in</v>
       </c>
-      <c r="J127" t="str">
-        <f>J118</f>
+      <c r="J137" t="str">
+        <f>J128</f>
         <v>price_pu_in</v>
       </c>
-      <c r="K127" t="str">
-        <f>K118</f>
+      <c r="K137" t="str">
+        <f>K128</f>
         <v>price_in</v>
       </c>
     </row>
-    <row r="128" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="str">
+    <row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B128" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B127,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B138" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B137,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C128" s="3" t="str">
-        <f t="shared" ref="C128:I128" si="90">_xlfn.XLOOKUP(C127,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C138" s="3" t="str">
+        <f t="shared" ref="C138:I138" si="98">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D128" s="3" t="str">
-        <f t="shared" si="90"/>
+      <c r="D138" s="3" t="str">
+        <f t="shared" si="98"/>
         <v>categorical</v>
       </c>
-      <c r="E128" s="3" t="str">
-        <f t="shared" si="90"/>
+      <c r="E138" s="3" t="str">
+        <f t="shared" si="98"/>
         <v>categorical</v>
       </c>
-      <c r="F128" s="3" t="str">
-        <f t="shared" si="90"/>
+      <c r="F138" s="3" t="str">
+        <f t="shared" si="98"/>
         <v>categorical</v>
       </c>
-      <c r="G128" s="3" t="str">
-        <f t="shared" si="90"/>
+      <c r="G138" s="3" t="str">
+        <f t="shared" si="98"/>
         <v>categorical</v>
       </c>
-      <c r="H128" s="3" t="str">
-        <f t="shared" si="90"/>
+      <c r="H138" s="3" t="str">
+        <f t="shared" si="98"/>
         <v>categorical</v>
       </c>
-      <c r="I128" s="3" t="str">
-        <f t="shared" si="90"/>
+      <c r="I138" s="3" t="str">
+        <f t="shared" si="98"/>
         <v>uint64</v>
       </c>
-      <c r="J128" s="3" t="str">
-        <f>_xlfn.XLOOKUP(J127,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="J138" s="3" t="str">
+        <f>_xlfn.XLOOKUP(J137,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
-      <c r="K128" s="3" t="str">
-        <f>_xlfn.XLOOKUP(K127,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="K138" s="3" t="str">
+        <f>_xlfn.XLOOKUP(K137,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
-      <c r="L128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-    </row>
-    <row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="str">
+      <c r="L138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B129" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B127,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B139" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B137,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C129" s="3" t="str">
-        <f t="shared" ref="C129:I129" si="91">_xlfn.XLOOKUP(C127,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C139" s="3" t="str">
+        <f t="shared" ref="C139:I139" si="99">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D129" s="3" t="str">
-        <f t="shared" si="91"/>
+      <c r="D139" s="3" t="str">
+        <f t="shared" si="99"/>
         <v>None</v>
       </c>
-      <c r="E129" s="3" t="str">
-        <f t="shared" si="91"/>
+      <c r="E139" s="3" t="str">
+        <f t="shared" si="99"/>
         <v>None</v>
       </c>
-      <c r="F129" s="3" t="str">
-        <f t="shared" si="91"/>
+      <c r="F139" s="3" t="str">
+        <f t="shared" si="99"/>
         <v>None</v>
       </c>
-      <c r="G129" s="3" t="str">
-        <f t="shared" si="91"/>
+      <c r="G139" s="3" t="str">
+        <f t="shared" si="99"/>
         <v>None</v>
       </c>
-      <c r="H129" s="3" t="str">
-        <f t="shared" si="91"/>
+      <c r="H139" s="3" t="str">
+        <f t="shared" si="99"/>
         <v>None</v>
       </c>
-      <c r="I129" s="3" t="str">
-        <f t="shared" si="91"/>
+      <c r="I139" s="3" t="str">
+        <f t="shared" si="99"/>
         <v>Wh</v>
       </c>
-      <c r="J129" s="3" t="str">
-        <f>_xlfn.XLOOKUP(J127,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="J139" s="3" t="str">
+        <f>_xlfn.XLOOKUP(J137,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>€e7/Wh</v>
       </c>
-      <c r="K129" s="3" t="str">
-        <f>_xlfn.XLOOKUP(K127,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="K139" s="3" t="str">
+        <f>_xlfn.XLOOKUP(K137,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>€e7</v>
       </c>
-      <c r="L129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="str">
+      <c r="L139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B130" t="str">
-        <f>_xlfn.XLOOKUP(B127,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B140" t="str">
+        <f>_xlfn.XLOOKUP(B137,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C130" t="str">
-        <f t="shared" ref="C130:I130" si="92">_xlfn.XLOOKUP(C127,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C140" t="str">
+        <f t="shared" ref="C140:I140" si="100">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
-      <c r="D130" t="str">
-        <f t="shared" si="92"/>
+      <c r="D140" t="str">
+        <f t="shared" si="100"/>
         <v>region in which the market is</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="92"/>
+      <c r="E140" t="str">
+        <f t="shared" si="100"/>
         <v>type of market</v>
       </c>
-      <c r="F130" t="str">
-        <f t="shared" si="92"/>
+      <c r="F140" t="str">
+        <f t="shared" si="100"/>
         <v>name of the market</v>
       </c>
-      <c r="G130" t="str">
-        <f t="shared" si="92"/>
+      <c r="G140" t="str">
+        <f t="shared" si="100"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
-      <c r="H130" t="str">
-        <f t="shared" si="92"/>
+      <c r="H140" t="str">
+        <f t="shared" si="100"/>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="I130" t="str">
-        <f t="shared" si="92"/>
+      <c r="I140" t="str">
+        <f t="shared" si="100"/>
         <v>energy going into the meter</v>
       </c>
-      <c r="J130" t="str">
-        <f>_xlfn.XLOOKUP(J127,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="J140" t="str">
+        <f>_xlfn.XLOOKUP(J137,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>spec. price for incoming energy</v>
       </c>
-      <c r="K130" t="str">
-        <f>_xlfn.XLOOKUP(K127,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="K140" t="str">
+        <f>_xlfn.XLOOKUP(K137,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>total price for incoming energy</v>
       </c>
     </row>
-    <row r="131" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="str">
+    <row r="141" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B133" s="15" t="str">
+      <c r="B143" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C133" s="15" t="str">
+      <c r="C143" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D133" s="15" t="str">
+      <c r="D143" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E133" s="15" t="str">
+      <c r="E143" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="134" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B134" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A134,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="144" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A144,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C134" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A134,$A$4:$A$21,$C$4:$C$21)</f>
+      <c r="C144" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A144,$A$4:$A$22,$C$4:$C$22)</f>
         <v>contains all cleared offers</v>
       </c>
-      <c r="D134" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A134,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="D144" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A144,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E134" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A134,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-    </row>
-    <row r="136" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="9" t="str">
+      <c r="E144" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A144,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="9" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C136" s="9" t="str">
-        <f t="shared" ref="C136:F136" si="93">C26</f>
+      <c r="C146" s="9" t="str">
+        <f>C26</f>
         <v>timestep</v>
       </c>
-      <c r="D136" s="9" t="str">
-        <f t="shared" si="93"/>
+      <c r="D146" s="9" t="str">
+        <f>D26</f>
         <v>region</v>
       </c>
-      <c r="E136" s="9" t="str">
-        <f t="shared" si="93"/>
+      <c r="E146" s="9" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="F136" s="9" t="str">
-        <f t="shared" si="93"/>
+      <c r="F146" s="9" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="G136" s="9" t="str">
-        <f>G26</f>
+      <c r="G146" s="9" t="str">
+        <f>H26</f>
         <v>type_transaction</v>
       </c>
-      <c r="H136" s="9" t="str">
-        <f>H26</f>
+      <c r="H146" s="9" t="str">
+        <f>I26</f>
         <v>id_agent</v>
       </c>
-      <c r="I136" s="9" t="str">
-        <f>N26</f>
+      <c r="I146" s="9" t="str">
+        <f>O26</f>
         <v>energy_out</v>
       </c>
-      <c r="J136" s="9" t="str">
-        <f>R26</f>
+      <c r="J146" s="9" t="str">
+        <f>S26</f>
         <v>price_pu_out</v>
       </c>
-      <c r="K136" s="9" t="str">
-        <f>U26</f>
+      <c r="K146" s="9" t="str">
+        <f>V26</f>
         <v>price_out</v>
       </c>
-      <c r="L136" s="9" t="str">
-        <f>Z26</f>
+      <c r="L146" s="9" t="str">
+        <f>AA26</f>
         <v>quality</v>
       </c>
     </row>
-    <row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="str">
+    <row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B137" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B136,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B147" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C137" s="3" t="str">
-        <f t="shared" ref="C137:F137" si="94">_xlfn.XLOOKUP(C136,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C147" s="3" t="str">
+        <f t="shared" ref="C147:F147" si="101">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D137" s="3" t="str">
-        <f t="shared" si="94"/>
+      <c r="D147" s="3" t="str">
+        <f t="shared" si="101"/>
         <v>categorical</v>
       </c>
-      <c r="E137" s="3" t="str">
-        <f t="shared" si="94"/>
+      <c r="E147" s="3" t="str">
+        <f t="shared" si="101"/>
         <v>categorical</v>
       </c>
-      <c r="F137" s="3" t="str">
-        <f t="shared" si="94"/>
+      <c r="F147" s="3" t="str">
+        <f t="shared" si="101"/>
         <v>categorical</v>
       </c>
-      <c r="G137" s="3" t="str">
-        <f t="shared" ref="G137:L137" si="95">_xlfn.XLOOKUP(G136,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="G147" s="3" t="str">
+        <f t="shared" ref="G147:L147" si="102">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="H137" s="3" t="str">
-        <f t="shared" si="95"/>
+      <c r="H147" s="3" t="str">
+        <f t="shared" si="102"/>
         <v>categorical</v>
       </c>
-      <c r="I137" s="3" t="str">
-        <f t="shared" si="95"/>
+      <c r="I147" s="3" t="str">
+        <f t="shared" si="102"/>
         <v>uint64</v>
       </c>
-      <c r="J137" s="3" t="str">
-        <f t="shared" si="95"/>
+      <c r="J147" s="3" t="str">
+        <f t="shared" si="102"/>
         <v>int32</v>
       </c>
-      <c r="K137" s="3" t="str">
-        <f t="shared" si="95"/>
+      <c r="K147" s="3" t="str">
+        <f t="shared" si="102"/>
         <v>int64</v>
       </c>
-      <c r="L137" s="3" t="str">
-        <f t="shared" si="95"/>
+      <c r="L147" s="3" t="str">
+        <f t="shared" si="102"/>
         <v>categorical</v>
       </c>
-      <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
-    </row>
-    <row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="str">
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B138" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B136,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B148" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C138" s="3" t="str">
-        <f t="shared" ref="C138:F138" si="96">_xlfn.XLOOKUP(C136,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C148" s="3" t="str">
+        <f t="shared" ref="C148:F148" si="103">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D138" s="3" t="str">
-        <f t="shared" si="96"/>
+      <c r="D148" s="3" t="str">
+        <f t="shared" si="103"/>
         <v>None</v>
       </c>
-      <c r="E138" s="3" t="str">
-        <f t="shared" si="96"/>
+      <c r="E148" s="3" t="str">
+        <f t="shared" si="103"/>
         <v>None</v>
       </c>
-      <c r="F138" s="3" t="str">
-        <f t="shared" si="96"/>
+      <c r="F148" s="3" t="str">
+        <f t="shared" si="103"/>
         <v>None</v>
       </c>
-      <c r="G138" s="3" t="str">
-        <f t="shared" ref="G138:L138" si="97">_xlfn.XLOOKUP(G136,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="G148" s="3" t="str">
+        <f t="shared" ref="G148:L148" si="104">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="H138" s="3" t="str">
-        <f t="shared" si="97"/>
+      <c r="H148" s="3" t="str">
+        <f t="shared" si="104"/>
         <v>None</v>
       </c>
-      <c r="I138" s="3" t="str">
-        <f t="shared" si="97"/>
+      <c r="I148" s="3" t="str">
+        <f t="shared" si="104"/>
         <v>Wh</v>
       </c>
-      <c r="J138" s="3" t="str">
-        <f t="shared" si="97"/>
+      <c r="J148" s="3" t="str">
+        <f t="shared" si="104"/>
         <v>€e7/Wh</v>
       </c>
-      <c r="K138" s="3" t="str">
-        <f t="shared" si="97"/>
+      <c r="K148" s="3" t="str">
+        <f t="shared" si="104"/>
         <v>€e7</v>
       </c>
-      <c r="L138" s="3" t="str">
-        <f t="shared" si="97"/>
+      <c r="L148" s="3" t="str">
+        <f t="shared" si="104"/>
         <v>None</v>
       </c>
-      <c r="N138" s="3"/>
-      <c r="O138" s="3"/>
-    </row>
-    <row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="str">
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B139" t="str">
-        <f>_xlfn.XLOOKUP(B136,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B149" t="str">
+        <f>_xlfn.XLOOKUP(B146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C139" t="str">
-        <f t="shared" ref="C139:F139" si="98">_xlfn.XLOOKUP(C136,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C149" t="str">
+        <f t="shared" ref="C149:F149" si="105">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
-      <c r="D139" t="str">
-        <f t="shared" si="98"/>
+      <c r="D149" t="str">
+        <f t="shared" si="105"/>
         <v>region in which the market is</v>
       </c>
-      <c r="E139" t="str">
-        <f t="shared" si="98"/>
+      <c r="E149" t="str">
+        <f t="shared" si="105"/>
         <v>type of market</v>
       </c>
-      <c r="F139" t="str">
-        <f t="shared" si="98"/>
+      <c r="F149" t="str">
+        <f t="shared" si="105"/>
         <v>name of the market</v>
       </c>
-      <c r="G139" t="str">
-        <f t="shared" ref="G139:L139" si="99">_xlfn.XLOOKUP(G136,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="G149" t="str">
+        <f t="shared" ref="G149:L149" si="106">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
-      <c r="H139" t="str">
-        <f t="shared" si="99"/>
+      <c r="H149" t="str">
+        <f t="shared" si="106"/>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="I139" t="str">
-        <f t="shared" si="99"/>
+      <c r="I149" t="str">
+        <f t="shared" si="106"/>
         <v>energy going out of the meter</v>
       </c>
-      <c r="J139" t="str">
-        <f t="shared" si="99"/>
+      <c r="J149" t="str">
+        <f t="shared" si="106"/>
         <v>spec. price for outflowing energy</v>
       </c>
-      <c r="K139" t="str">
-        <f t="shared" si="99"/>
+      <c r="K149" t="str">
+        <f t="shared" si="106"/>
         <v>total price for outflowing energy</v>
       </c>
-      <c r="L139" t="str">
-        <f t="shared" si="99"/>
+      <c r="L149" t="str">
+        <f t="shared" si="106"/>
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="140" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="str">
+    <row r="150" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="8"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B142" s="15" t="str">
+      <c r="B152" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C142" s="15" t="str">
+      <c r="C152" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D142" s="15" t="str">
+      <c r="D152" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E142" s="15" t="str">
+      <c r="E152" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="143" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B143" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A143,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="153" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A153,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C143" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A143,$A$4:$A$21,$C$4:$C$21)</f>
+      <c r="C153" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A153,$A$4:$A$22,$C$4:$C$22)</f>
         <v>contains all uncleared offers</v>
       </c>
-      <c r="D143" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A143,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="D153" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A153,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E143" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A143,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-    </row>
-    <row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" t="str">
-        <f>B136</f>
+      <c r="E153" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A153,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="str">
+        <f>B146</f>
         <v>timestamp</v>
       </c>
-      <c r="C145" t="str">
-        <f t="shared" ref="C145:H145" si="100">C136</f>
+      <c r="C155" t="str">
+        <f t="shared" ref="C155:H155" si="107">C146</f>
         <v>timestep</v>
       </c>
-      <c r="D145" t="str">
-        <f t="shared" si="100"/>
+      <c r="D155" t="str">
+        <f t="shared" si="107"/>
         <v>region</v>
       </c>
-      <c r="E145" t="str">
-        <f t="shared" si="100"/>
+      <c r="E155" t="str">
+        <f t="shared" si="107"/>
         <v>market</v>
       </c>
-      <c r="F145" t="str">
-        <f t="shared" si="100"/>
+      <c r="F155" t="str">
+        <f t="shared" si="107"/>
         <v>name</v>
       </c>
-      <c r="G145" t="str">
-        <f t="shared" si="100"/>
+      <c r="G155" t="str">
+        <f t="shared" si="107"/>
         <v>type_transaction</v>
       </c>
-      <c r="H145" t="str">
-        <f t="shared" si="100"/>
+      <c r="H155" t="str">
+        <f t="shared" si="107"/>
         <v>id_agent</v>
       </c>
-      <c r="I145" t="str">
-        <f>I136</f>
+      <c r="I155" t="str">
+        <f>I146</f>
         <v>energy_out</v>
       </c>
-      <c r="J145" t="str">
-        <f>J136</f>
+      <c r="J155" t="str">
+        <f>J146</f>
         <v>price_pu_out</v>
       </c>
-      <c r="K145" t="str">
-        <f>K136</f>
+      <c r="K155" t="str">
+        <f>K146</f>
         <v>price_out</v>
       </c>
-      <c r="L145" t="str">
-        <f>L136</f>
+      <c r="L155" t="str">
+        <f>L146</f>
         <v>quality</v>
       </c>
     </row>
-    <row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="str">
+    <row r="156" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B146" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B145,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B156" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B155,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C146" s="3" t="str">
-        <f t="shared" ref="C146:L146" si="101">_xlfn.XLOOKUP(C145,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C156" s="3" t="str">
+        <f t="shared" ref="C156:L156" si="108">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="D156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>categorical</v>
       </c>
-      <c r="E146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="E156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>categorical</v>
       </c>
-      <c r="F146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="F156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>categorical</v>
       </c>
-      <c r="G146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="G156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>categorical</v>
       </c>
-      <c r="H146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="H156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>categorical</v>
       </c>
-      <c r="I146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="I156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>uint64</v>
       </c>
-      <c r="J146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="J156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>int32</v>
       </c>
-      <c r="K146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="K156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>int64</v>
       </c>
-      <c r="L146" s="3" t="str">
-        <f t="shared" si="101"/>
+      <c r="L156" s="3" t="str">
+        <f t="shared" si="108"/>
         <v>categorical</v>
       </c>
-      <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
-      <c r="O146" s="3"/>
-    </row>
-    <row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="str">
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B147" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B145,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B157" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B155,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C147" s="3" t="str">
-        <f t="shared" ref="C147:L147" si="102">_xlfn.XLOOKUP(C145,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C157" s="3" t="str">
+        <f t="shared" ref="C157:L157" si="109">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="D157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>None</v>
       </c>
-      <c r="E147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="E157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>None</v>
       </c>
-      <c r="F147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="F157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>None</v>
       </c>
-      <c r="G147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="G157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>None</v>
       </c>
-      <c r="H147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="H157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>None</v>
       </c>
-      <c r="I147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="I157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>Wh</v>
       </c>
-      <c r="J147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="J157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>€e7/Wh</v>
       </c>
-      <c r="K147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="K157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>€e7</v>
       </c>
-      <c r="L147" s="3" t="str">
-        <f t="shared" si="102"/>
+      <c r="L157" s="3" t="str">
+        <f t="shared" si="109"/>
         <v>None</v>
       </c>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
-    </row>
-    <row r="148" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="str">
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B148" t="str">
-        <f>_xlfn.XLOOKUP(B145,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B158" t="str">
+        <f>_xlfn.XLOOKUP(B155,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C148" t="str">
-        <f t="shared" ref="C148:L148" si="103">_xlfn.XLOOKUP(C145,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C158" t="str">
+        <f t="shared" ref="C158:L158" si="110">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
-      <c r="D148" t="str">
-        <f t="shared" si="103"/>
+      <c r="D158" t="str">
+        <f t="shared" si="110"/>
         <v>region in which the market is</v>
       </c>
-      <c r="E148" t="str">
-        <f t="shared" si="103"/>
+      <c r="E158" t="str">
+        <f t="shared" si="110"/>
         <v>type of market</v>
       </c>
-      <c r="F148" t="str">
-        <f t="shared" si="103"/>
+      <c r="F158" t="str">
+        <f t="shared" si="110"/>
         <v>name of the market</v>
       </c>
-      <c r="G148" t="str">
-        <f t="shared" si="103"/>
+      <c r="G158" t="str">
+        <f t="shared" si="110"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
-      <c r="H148" t="str">
-        <f t="shared" si="103"/>
+      <c r="H158" t="str">
+        <f t="shared" si="110"/>
         <v>agent id (also serves as main meter)</v>
       </c>
-      <c r="I148" t="str">
-        <f t="shared" si="103"/>
+      <c r="I158" t="str">
+        <f t="shared" si="110"/>
         <v>energy going out of the meter</v>
       </c>
-      <c r="J148" t="str">
-        <f t="shared" si="103"/>
+      <c r="J158" t="str">
+        <f t="shared" si="110"/>
         <v>spec. price for outflowing energy</v>
       </c>
-      <c r="K148" t="str">
-        <f t="shared" si="103"/>
+      <c r="K158" t="str">
+        <f t="shared" si="110"/>
         <v>total price for outflowing energy</v>
       </c>
-      <c r="L148" t="str">
-        <f t="shared" si="103"/>
+      <c r="L158" t="str">
+        <f t="shared" si="110"/>
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="149" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="str">
+    <row r="159" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B151" s="15" t="str">
+      <c r="B161" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C151" s="15" t="str">
+      <c r="C161" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D151" s="15" t="str">
+      <c r="D161" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E151" s="15" t="str">
+      <c r="E161" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="152" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B152" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A152,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="162" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A162,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C152" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A152,$A$4:$A$21,$C$4:$C$21)</f>
+      <c r="C162" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A162,$A$4:$A$22,$C$4:$C$22)</f>
         <v>contains all matched positions</v>
       </c>
-      <c r="D152" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A152,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="D162" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A162,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Markets</v>
       </c>
-      <c r="E152" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A152,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A153"/>
-    </row>
-    <row r="154" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" t="str">
+      <c r="E162" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A162,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C154" t="str">
-        <f t="shared" ref="C154:G154" si="104">C26</f>
+      <c r="C164" t="str">
+        <f>C26</f>
         <v>timestep</v>
       </c>
-      <c r="D154" t="str">
-        <f t="shared" si="104"/>
+      <c r="D164" t="str">
+        <f>D26</f>
         <v>region</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="104"/>
+      <c r="E164" t="str">
+        <f>E26</f>
         <v>market</v>
       </c>
-      <c r="F154" t="str">
-        <f t="shared" si="104"/>
+      <c r="F164" t="str">
+        <f>F26</f>
         <v>name</v>
       </c>
-      <c r="G154" t="str">
-        <f t="shared" si="104"/>
+      <c r="G164" t="str">
+        <f>H26</f>
         <v>type_transaction</v>
       </c>
-      <c r="H154" s="9" t="str">
-        <f>I26</f>
+      <c r="H164" s="9" t="str">
+        <f>J26</f>
         <v>id_agent_in</v>
       </c>
-      <c r="I154" s="9" t="str">
-        <f>J26</f>
+      <c r="I164" s="9" t="str">
+        <f>K26</f>
         <v>id_agent_out</v>
       </c>
-      <c r="J154" s="9" t="str">
-        <f>L26</f>
+      <c r="J164" s="9" t="str">
+        <f>M26</f>
         <v>energy</v>
       </c>
-      <c r="K154" s="9" t="str">
-        <f>P26</f>
+      <c r="K164" s="9" t="str">
+        <f>Q26</f>
         <v>price_pu</v>
       </c>
-      <c r="L154" s="9" t="str">
-        <f>S26</f>
+      <c r="L164" s="9" t="str">
+        <f>T26</f>
         <v>price</v>
       </c>
-      <c r="M154" s="9" t="str">
-        <f>Z26</f>
+      <c r="M164" s="9" t="str">
+        <f>AA26</f>
         <v>quality</v>
       </c>
     </row>
-    <row r="155" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="str">
+    <row r="165" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B155" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B154,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B165" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C155" s="3" t="str">
-        <f t="shared" ref="C155:H155" si="105">_xlfn.XLOOKUP(C154,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="C165" s="3" t="str">
+        <f t="shared" ref="C165:H165" si="111">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D155" s="3" t="str">
-        <f t="shared" si="105"/>
+      <c r="D165" s="3" t="str">
+        <f t="shared" si="111"/>
         <v>categorical</v>
       </c>
-      <c r="E155" s="3" t="str">
-        <f t="shared" si="105"/>
+      <c r="E165" s="3" t="str">
+        <f t="shared" si="111"/>
         <v>categorical</v>
       </c>
-      <c r="F155" s="3" t="str">
-        <f t="shared" si="105"/>
+      <c r="F165" s="3" t="str">
+        <f t="shared" si="111"/>
         <v>categorical</v>
       </c>
-      <c r="G155" s="3" t="str">
-        <f t="shared" si="105"/>
+      <c r="G165" s="3" t="str">
+        <f t="shared" si="111"/>
         <v>categorical</v>
       </c>
-      <c r="H155" s="3" t="str">
-        <f t="shared" si="105"/>
+      <c r="H165" s="3" t="str">
+        <f t="shared" si="111"/>
         <v>categorical</v>
       </c>
-      <c r="I155" s="3" t="str">
-        <f t="shared" ref="I155:M155" si="106">_xlfn.XLOOKUP(I154,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="I165" s="3" t="str">
+        <f t="shared" ref="I165:M165" si="112">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
-      <c r="J155" s="3" t="str">
-        <f t="shared" si="106"/>
+      <c r="J165" s="3" t="str">
+        <f t="shared" si="112"/>
         <v>int64</v>
       </c>
-      <c r="K155" s="3" t="str">
-        <f t="shared" si="106"/>
+      <c r="K165" s="3" t="str">
+        <f t="shared" si="112"/>
         <v>int32</v>
       </c>
-      <c r="L155" s="3" t="str">
-        <f t="shared" si="106"/>
+      <c r="L165" s="3" t="str">
+        <f t="shared" si="112"/>
         <v>int64</v>
       </c>
-      <c r="M155" s="3" t="str">
-        <f t="shared" si="106"/>
+      <c r="M165" s="3" t="str">
+        <f t="shared" si="112"/>
         <v>categorical</v>
       </c>
-      <c r="N155" s="3"/>
-      <c r="O155" s="3"/>
-    </row>
-    <row r="156" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="str">
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
       </c>
-      <c r="B156" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B154,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="B166" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C156" s="3" t="str">
-        <f t="shared" ref="C156:H156" si="107">_xlfn.XLOOKUP(C154,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="C166" s="3" t="str">
+        <f t="shared" ref="C166:H166" si="113">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D156" s="3" t="str">
-        <f t="shared" si="107"/>
+      <c r="D166" s="3" t="str">
+        <f t="shared" si="113"/>
         <v>None</v>
       </c>
-      <c r="E156" s="3" t="str">
-        <f t="shared" si="107"/>
+      <c r="E166" s="3" t="str">
+        <f t="shared" si="113"/>
         <v>None</v>
       </c>
-      <c r="F156" s="3" t="str">
-        <f t="shared" si="107"/>
+      <c r="F166" s="3" t="str">
+        <f t="shared" si="113"/>
         <v>None</v>
       </c>
-      <c r="G156" s="3" t="str">
-        <f t="shared" si="107"/>
+      <c r="G166" s="3" t="str">
+        <f t="shared" si="113"/>
         <v>None</v>
       </c>
-      <c r="H156" s="3" t="str">
-        <f t="shared" si="107"/>
+      <c r="H166" s="3" t="str">
+        <f t="shared" si="113"/>
         <v>None</v>
       </c>
-      <c r="I156" s="3" t="str">
-        <f t="shared" ref="I156:M156" si="108">_xlfn.XLOOKUP(I154,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+      <c r="I166" s="3" t="str">
+        <f t="shared" ref="I166:M166" si="114">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
-      <c r="J156" s="3" t="str">
-        <f t="shared" si="108"/>
+      <c r="J166" s="3" t="str">
+        <f t="shared" si="114"/>
         <v>Wh</v>
       </c>
-      <c r="K156" s="3" t="str">
-        <f t="shared" si="108"/>
+      <c r="K166" s="3" t="str">
+        <f t="shared" si="114"/>
         <v>€e7/Wh</v>
       </c>
-      <c r="L156" s="3" t="str">
-        <f t="shared" si="108"/>
+      <c r="L166" s="3" t="str">
+        <f t="shared" si="114"/>
         <v>€e7</v>
       </c>
-      <c r="M156" s="3" t="str">
-        <f t="shared" si="108"/>
+      <c r="M166" s="3" t="str">
+        <f t="shared" si="114"/>
         <v>None</v>
       </c>
-      <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
-    </row>
-    <row r="157" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="str">
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B157" t="str">
-        <f>_xlfn.XLOOKUP(B154,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B167" t="str">
+        <f>_xlfn.XLOOKUP(B164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C157" t="str">
-        <f t="shared" ref="C157:H157" si="109">_xlfn.XLOOKUP(C154,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="C167" t="str">
+        <f t="shared" ref="C167:H167" si="115">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
-      <c r="D157" t="str">
-        <f t="shared" si="109"/>
+      <c r="D167" t="str">
+        <f t="shared" si="115"/>
         <v>region in which the market is</v>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="109"/>
+      <c r="E167" t="str">
+        <f t="shared" si="115"/>
         <v>type of market</v>
       </c>
-      <c r="F157" t="str">
-        <f t="shared" si="109"/>
+      <c r="F167" t="str">
+        <f t="shared" si="115"/>
         <v>name of the market</v>
       </c>
-      <c r="G157" t="str">
-        <f t="shared" si="109"/>
+      <c r="G167" t="str">
+        <f t="shared" si="115"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
-      <c r="H157" t="str">
-        <f t="shared" si="109"/>
+      <c r="H167" t="str">
+        <f t="shared" si="115"/>
         <v>agent id of incoming energy</v>
       </c>
-      <c r="I157" t="str">
-        <f t="shared" ref="I157:M157" si="110">_xlfn.XLOOKUP(I154,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="I167" t="str">
+        <f t="shared" ref="I167:M167" si="116">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>agent id of outgoing energy</v>
       </c>
-      <c r="J157" t="str">
-        <f t="shared" si="110"/>
+      <c r="J167" t="str">
+        <f t="shared" si="116"/>
         <v>undirectional energy</v>
       </c>
-      <c r="K157" t="str">
-        <f t="shared" si="110"/>
+      <c r="K167" t="str">
+        <f t="shared" si="116"/>
         <v>spec. price for energy</v>
       </c>
-      <c r="L157" t="str">
-        <f t="shared" si="110"/>
+      <c r="L167" t="str">
+        <f t="shared" si="116"/>
         <v>total price for energy</v>
       </c>
-      <c r="M157" t="str">
-        <f t="shared" si="110"/>
+      <c r="M167" t="str">
+        <f t="shared" si="116"/>
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" s="15" t="str">
+    <row r="168" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="8"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B160" s="15" t="str">
+      <c r="B170" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C160" s="15" t="str">
+      <c r="C170" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D160" s="15" t="str">
+      <c r="D170" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E160" s="15" t="str">
+      <c r="E170" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="161" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B161" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A161,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="171" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A171,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C161" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A161,$A$4:$A$21,$C$4:$C$21)</f>
+      <c r="C171" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A171,$A$4:$A$22,$C$4:$C$22)</f>
         <v>contains current meter value</v>
       </c>
-      <c r="D161" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A161,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="D171" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A171,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Agents</v>
       </c>
-      <c r="E161" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A161,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E171" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A171,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A162"/>
-      <c r="B162" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="9" t="str">
-        <f>O26</f>
+    <row r="172" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="9" t="str">
+        <f>P26</f>
         <v>energy_used</v>
       </c>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-    </row>
-    <row r="164" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="str">
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+    </row>
+    <row r="174" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B164" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B163,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B174" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B173,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
-      </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
-    </row>
-    <row r="165" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="str">
-        <f>$A$28</f>
-        <v>unit</v>
-      </c>
-      <c r="B165" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B163,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>Wh</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="str">
-        <f>$A$29</f>
-        <v>description</v>
-      </c>
-      <c r="B166" t="str">
-        <f>_xlfn.XLOOKUP(B163,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>used energy over all timesteps</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="str">
-        <f>$A$3</f>
-        <v>Table</v>
-      </c>
-      <c r="B169" s="15" t="str">
-        <f>$B$3</f>
-        <v>Section</v>
-      </c>
-      <c r="C169" s="15" t="str">
-        <f>$C$3</f>
-        <v>Description</v>
-      </c>
-      <c r="D169" s="15" t="str">
-        <f>$D$3</f>
-        <v>Class</v>
-      </c>
-      <c r="E169" s="15" t="str">
-        <f>$E$3</f>
-        <v>Saved</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B170" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A170,$A$4:$A$21,$B$4:$B$21)</f>
-        <v>Executor</v>
-      </c>
-      <c r="C170" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A170,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains current SoC</v>
-      </c>
-      <c r="D170" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A170,$A$4:$A$21,$D$4:$D$21)</f>
-        <v>Agents</v>
-      </c>
-      <c r="E170" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A170,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A171"/>
-      <c r="B171" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="9" t="str">
-        <f>AD26</f>
-        <v>soc</v>
-      </c>
-      <c r="H172" s="9"/>
-      <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="9"/>
-      <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
-    </row>
-    <row r="173" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="str">
-        <f>$A$27</f>
-        <v>dtype</v>
-      </c>
-      <c r="B173" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B172,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>uint16</v>
-      </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
-    </row>
-    <row r="174" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="str">
-        <f>$A$28</f>
-        <v>unit</v>
-      </c>
-      <c r="B174" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B172,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>1e5</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -7848,124 +8102,114 @@
     </row>
     <row r="175" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
+        <f>$A$28</f>
+        <v>unit</v>
+      </c>
+      <c r="B175" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B173,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>Wh</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B175" t="str">
-        <f>_xlfn.XLOOKUP(B172,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>state-of-charge</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="15" t="str">
+      <c r="B176" t="str">
+        <f>_xlfn.XLOOKUP(B173,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>used energy over all timesteps</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B178" s="15" t="str">
+      <c r="B179" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C178" s="15" t="str">
+      <c r="C179" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D178" s="15" t="str">
+      <c r="D179" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E178" s="15" t="str">
+      <c r="E179" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="179" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B179" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A179,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="180" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B180" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A180,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C179" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A179,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains all plants timeseries</v>
-      </c>
-      <c r="D179" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A179,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C180" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A180,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains current SoC</v>
+      </c>
+      <c r="D180" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A180,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Agents</v>
       </c>
-      <c r="E179" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A179,$A$4:$A$21,$E$4:$E$21)</f>
+      <c r="E180" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A180,$A$4:$A$22,$E$4:$E$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A180"/>
-      <c r="C180" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="181" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="9" t="str">
-        <f>B26</f>
-        <v>timestamp</v>
-      </c>
-      <c r="C181" s="9" t="str">
+      <c r="A181"/>
+      <c r="B181" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="9" t="str">
         <f>AE26</f>
-        <v>plant_value</v>
-      </c>
-      <c r="H181" s="9"/>
-      <c r="I181" s="9"/>
-      <c r="J181" s="9"/>
-      <c r="K181" s="9"/>
-      <c r="L181" s="9"/>
-      <c r="M181" s="9"/>
-    </row>
-    <row r="182" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="str">
+        <v>soc</v>
+      </c>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+    </row>
+    <row r="183" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B182" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B181,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>datetime</v>
-      </c>
-      <c r="C182" s="3">
-        <f>_xlfn.XLOOKUP(C181,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>0</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-    </row>
-    <row r="183" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="str">
-        <f>$A$28</f>
-        <v>unit</v>
-      </c>
       <c r="B183" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B181,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>s</v>
-      </c>
-      <c r="C183" s="3">
-        <f>_xlfn.XLOOKUP(C181,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>0</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B182,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>uint16</v>
+      </c>
+      <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -7981,133 +8225,122 @@
     </row>
     <row r="184" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
+        <f>$A$28</f>
+        <v>unit</v>
+      </c>
+      <c r="B184" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B182,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>1e5</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B184" t="str">
-        <f>_xlfn.XLOOKUP(B181,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>current timestamp</v>
-      </c>
-      <c r="C184" t="str">
-        <f>_xlfn.XLOOKUP(C181,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>value of plant timeseries</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="15" t="str">
+      <c r="B185" t="str">
+        <f>_xlfn.XLOOKUP(B182,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>state-of-charge</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B187" s="15" t="str">
+      <c r="B188" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C187" s="15" t="str">
+      <c r="C188" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D187" s="15" t="str">
+      <c r="D188" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E187" s="15" t="str">
+      <c r="E188" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="188" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B188" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A188,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="189" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B189" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A189,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C188" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A188,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains plant setpoint for timesteps</v>
-      </c>
-      <c r="D188" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A188,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C189" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A189,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains all plants timeseries</v>
+      </c>
+      <c r="D189" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A189,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Agents</v>
       </c>
-      <c r="E188" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A188,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A189"/>
-      <c r="D189" t="s">
-        <v>269</v>
+      <c r="E189" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A189,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" t="str">
+      <c r="A190"/>
+      <c r="C190" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="9" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C190" s="9" t="str">
-        <f>C26</f>
-        <v>timestep</v>
-      </c>
-      <c r="D190" t="str">
-        <f>V26</f>
-        <v>power</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="str">
+      <c r="C191" s="9" t="str">
+        <f>AF26</f>
+        <v>plant_value</v>
+      </c>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+    </row>
+    <row r="192" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
       </c>
-      <c r="B191" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B190,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+      <c r="B192" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B191,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C191" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C190,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>datetime</v>
-      </c>
-      <c r="D191" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D190,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>int32</v>
-      </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-    </row>
-    <row r="192" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="str">
-        <f>$A$28</f>
-        <v>unit</v>
-      </c>
-      <c r="B192" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B190,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>s</v>
-      </c>
-      <c r="C192" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C190,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>s</v>
-      </c>
-      <c r="D192" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D190,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>W</v>
-      </c>
+      <c r="C192" s="3">
+        <f>_xlfn.XLOOKUP(C191,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>0</v>
+      </c>
+      <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -8122,81 +8355,101 @@
     </row>
     <row r="193" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
+        <f>$A$28</f>
+        <v>unit</v>
+      </c>
+      <c r="B193" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B191,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>s</v>
+      </c>
+      <c r="C193" s="3">
+        <f>_xlfn.XLOOKUP(C191,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>0</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+    </row>
+    <row r="194" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
       </c>
-      <c r="B193" t="str">
-        <f>_xlfn.XLOOKUP(B190,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+      <c r="B194" t="str">
+        <f>_xlfn.XLOOKUP(B191,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>current timestamp</v>
       </c>
-      <c r="C193" t="str">
-        <f>_xlfn.XLOOKUP(C190,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>timestep (can be in future)</v>
-      </c>
-      <c r="D193" t="str">
-        <f>_xlfn.XLOOKUP(D190,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>undirectional power</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="196" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="15" t="str">
+      <c r="C194" t="str">
+        <f>_xlfn.XLOOKUP(C191,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>value of plant timeseries</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="8"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
       </c>
-      <c r="B196" s="15" t="str">
+      <c r="B197" s="15" t="str">
         <f>$B$3</f>
         <v>Section</v>
       </c>
-      <c r="C196" s="15" t="str">
+      <c r="C197" s="15" t="str">
         <f>$C$3</f>
         <v>Description</v>
       </c>
-      <c r="D196" s="15" t="str">
+      <c r="D197" s="15" t="str">
         <f>$D$3</f>
         <v>Class</v>
       </c>
-      <c r="E196" s="15" t="str">
+      <c r="E197" s="15" t="str">
         <f>$E$3</f>
         <v>Saved</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="16" t="str">
-        <f>A21</f>
-        <v>forecasts</v>
-      </c>
-      <c r="B197" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A197,$A$4:$A$21,$B$4:$B$21)</f>
+    <row r="198" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B198" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A198,$A$4:$A$22,$B$4:$B$22)</f>
         <v>Executor</v>
       </c>
-      <c r="C197" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A197,$A$4:$A$21,$C$4:$C$21)</f>
-        <v>contains all forecasts (except weather)</v>
-      </c>
-      <c r="D197" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A197,$A$4:$A$21,$D$4:$D$21)</f>
+      <c r="C198" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A198,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains plant setpoint for timesteps</v>
+      </c>
+      <c r="D198" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A198,$A$4:$A$22,$D$4:$D$22)</f>
         <v>Agents</v>
       </c>
-      <c r="E197" s="5" t="b">
-        <f>_xlfn.XLOOKUP(A197,$A$4:$A$21,$E$4:$E$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="E198" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A198,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="199" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="D199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="200" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
-      <c r="B200" s="9" t="str">
+      <c r="B200" t="str">
         <f>B26</f>
         <v>timestamp</v>
       </c>
@@ -8204,16 +8457,10 @@
         <f>C26</f>
         <v>timestep</v>
       </c>
-      <c r="D200" s="9" t="str">
-        <f>AE26</f>
-        <v>plant_value</v>
-      </c>
-      <c r="H200" s="9"/>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
-      <c r="K200" s="9"/>
-      <c r="L200" s="9"/>
-      <c r="M200" s="9"/>
+      <c r="D200" t="str">
+        <f>W26</f>
+        <v>power</v>
+      </c>
     </row>
     <row r="201" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
@@ -8228,9 +8475,9 @@
         <f>_xlfn.XLOOKUP(C200,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="3" t="str">
         <f>_xlfn.XLOOKUP(D200,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>0</v>
+        <v>int32</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -8257,9 +8504,9 @@
         <f>_xlfn.XLOOKUP(C200,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="3" t="str">
         <f>_xlfn.XLOOKUP(D200,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>0</v>
+        <v>W</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -8288,16 +8535,169 @@
       </c>
       <c r="D203" t="str">
         <f>_xlfn.XLOOKUP(D200,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>value of plant timeseries</v>
+        <v>undirectional power</v>
       </c>
     </row>
     <row r="204" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
+    </row>
+    <row r="206" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="str">
+        <f>$A$3</f>
+        <v>Table</v>
+      </c>
+      <c r="B206" s="15" t="str">
+        <f>$B$3</f>
+        <v>Section</v>
+      </c>
+      <c r="C206" s="15" t="str">
+        <f>$C$3</f>
+        <v>Description</v>
+      </c>
+      <c r="D206" s="15" t="str">
+        <f>$D$3</f>
+        <v>Class</v>
+      </c>
+      <c r="E206" s="15" t="str">
+        <f>$E$3</f>
+        <v>Saved</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="16" t="str">
+        <f>A22</f>
+        <v>forecasts</v>
+      </c>
+      <c r="B207" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A207,$A$4:$A$22,$B$4:$B$22)</f>
+        <v>Executor</v>
+      </c>
+      <c r="C207" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A207,$A$4:$A$22,$C$4:$C$22)</f>
+        <v>contains all forecasts (except weather)</v>
+      </c>
+      <c r="D207" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A207,$A$4:$A$22,$D$4:$D$22)</f>
+        <v>Agents</v>
+      </c>
+      <c r="E207" s="5" t="b">
+        <f>_xlfn.XLOOKUP(A207,$A$4:$A$22,$E$4:$E$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="D209" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="9" t="str">
+        <f>B26</f>
+        <v>timestamp</v>
+      </c>
+      <c r="C210" s="9" t="str">
+        <f>C26</f>
+        <v>timestep</v>
+      </c>
+      <c r="D210" s="9" t="str">
+        <f>AF26</f>
+        <v>plant_value</v>
+      </c>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+      <c r="L210" s="9"/>
+      <c r="M210" s="9"/>
+    </row>
+    <row r="211" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="str">
+        <f>$A$27</f>
+        <v>dtype</v>
+      </c>
+      <c r="B211" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B210,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>datetime</v>
+      </c>
+      <c r="C211" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C210,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>datetime</v>
+      </c>
+      <c r="D211" s="3">
+        <f>_xlfn.XLOOKUP(D210,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <v>0</v>
+      </c>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="str">
+        <f>$A$28</f>
+        <v>unit</v>
+      </c>
+      <c r="B212" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B210,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>s</v>
+      </c>
+      <c r="C212" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C210,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>s</v>
+      </c>
+      <c r="D212" s="3">
+        <f>_xlfn.XLOOKUP(D210,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>0</v>
+      </c>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+    </row>
+    <row r="213" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="str">
+        <f>$A$29</f>
+        <v>description</v>
+      </c>
+      <c r="B213" t="str">
+        <f>_xlfn.XLOOKUP(B210,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>current timestamp</v>
+      </c>
+      <c r="C213" t="str">
+        <f>_xlfn.XLOOKUP(C210,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>timestep (can be in future)</v>
+      </c>
+      <c r="D213" t="str">
+        <f>_xlfn.XLOOKUP(D210,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <v>value of plant timeseries</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q27:R27 M27:O27 T27:U27 Y27:XFD27 B27:K27" xr:uid="{39721BCA-305E-49BF-AD44-90D58CB02102}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R27:S27 Z27:XFD27 B27:F27 H27:L27 U27:V27 N27:P27" xr:uid="{39721BCA-305E-49BF-AD44-90D58CB02102}">
       <formula1>$B$33:$XFD$33</formula1>
     </dataValidation>
   </dataValidations>

--- a/hamlet/tables.xlsx
+++ b/hamlet/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\hamlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BED9E-25DD-48AD-8748-2684FC98E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91527C64-33C2-4BF7-B4B9-B04F38276B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="13" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1059,7 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3560,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B957E-FD5F-4D07-9D0A-3E5DB720F61E}">
   <dimension ref="A1:AK214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -4833,32 +4832,32 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="18" t="str">
-        <f>B26</f>
+    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" ref="B56:G56" si="10">B26</f>
         <v>timestamp</v>
       </c>
-      <c r="C56" s="18" t="str">
-        <f>C26</f>
+      <c r="C56" t="str">
+        <f t="shared" si="10"/>
         <v>timestep</v>
       </c>
-      <c r="D56" s="18" t="str">
-        <f>D26</f>
+      <c r="D56" t="str">
+        <f t="shared" si="10"/>
         <v>region</v>
       </c>
-      <c r="E56" s="18" t="str">
-        <f>E26</f>
+      <c r="E56" t="str">
+        <f t="shared" si="10"/>
         <v>market</v>
       </c>
-      <c r="F56" s="18" t="str">
-        <f>F26</f>
+      <c r="F56" t="str">
+        <f t="shared" si="10"/>
         <v>name</v>
       </c>
-      <c r="G56" s="18" t="str">
-        <f>G26</f>
+      <c r="G56" t="str">
+        <f t="shared" si="10"/>
         <v>energy_type</v>
       </c>
       <c r="H56" s="9" t="str">
@@ -4866,15 +4865,15 @@
         <v>action</v>
       </c>
       <c r="I56" s="9" t="str">
-        <f t="shared" ref="I56:K56" si="10">AH26</f>
+        <f t="shared" ref="I56:K56" si="11">AH26</f>
         <v>type</v>
       </c>
       <c r="J56" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>method</v>
       </c>
       <c r="K56" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>pricing</v>
       </c>
       <c r="L56" s="9" t="str">
@@ -4900,35 +4899,35 @@
         <v>categorical</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" ref="E57:G57" si="11">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="E57:G57" si="12">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>categorical</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>categorical</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" ref="H57" si="12">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="H57" si="13">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f t="shared" ref="I57" si="13">_xlfn.XLOOKUP(I56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="I57" si="14">_xlfn.XLOOKUP(I56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="J57" s="3" t="str">
-        <f t="shared" ref="J57" si="14">_xlfn.XLOOKUP(J56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="J57" si="15">_xlfn.XLOOKUP(J56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="K57" s="3" t="str">
-        <f t="shared" ref="K57" si="15">_xlfn.XLOOKUP(K56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="K57" si="16">_xlfn.XLOOKUP(K56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" ref="L57" si="16">_xlfn.XLOOKUP(L56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="L57" si="17">_xlfn.XLOOKUP(L56,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="M57" s="3"/>
@@ -4953,35 +4952,35 @@
         <v>None</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" ref="E58:G58" si="17">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="E58:G58" si="18">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>None</v>
-      </c>
-      <c r="G58" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>None</v>
-      </c>
-      <c r="H58" s="3" t="str">
-        <f t="shared" ref="H58:L58" si="18">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>None</v>
-      </c>
-      <c r="I58" s="3" t="str">
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
-      <c r="J58" s="3" t="str">
+      <c r="G58" s="3" t="str">
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="H58" s="3" t="str">
+        <f t="shared" ref="H58:L58" si="19">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <v>None</v>
+      </c>
+      <c r="I58" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>None</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>None</v>
+      </c>
       <c r="K58" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>None</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>None</v>
       </c>
       <c r="M58" s="3"/>
@@ -5006,35 +5005,35 @@
         <v>region in which the market is</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" ref="E59:G59" si="19">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="E59:G59" si="20">_xlfn.XLOOKUP(E56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>type of market</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>name of the market</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>type of energy (electr., heat, etc.)</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" ref="H59:L59" si="20">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="H59:L59" si="21">_xlfn.XLOOKUP(H56,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>action to be undertaken for market</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>clearing type (ex-ante, ex-post)</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>clearing method (pda, etc.)</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>pricing method (uniform, etc.)</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>coupling method (above, below)</v>
       </c>
     </row>
@@ -5096,35 +5095,35 @@
         <v>0</v>
       </c>
       <c r="B65" s="9" t="str">
-        <f>B26</f>
+        <f t="shared" ref="B65:I65" si="22">B26</f>
         <v>timestamp</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>C26</f>
+        <f t="shared" si="22"/>
         <v>timestep</v>
       </c>
       <c r="D65" s="9" t="str">
-        <f>D26</f>
+        <f t="shared" si="22"/>
         <v>region</v>
       </c>
       <c r="E65" s="9" t="str">
-        <f>E26</f>
+        <f t="shared" si="22"/>
         <v>market</v>
       </c>
       <c r="F65" s="9" t="str">
-        <f>F26</f>
+        <f t="shared" si="22"/>
         <v>name</v>
       </c>
       <c r="G65" s="9" t="str">
-        <f>G26</f>
+        <f t="shared" si="22"/>
         <v>energy_type</v>
       </c>
       <c r="H65" s="9" t="str">
-        <f>H26</f>
+        <f t="shared" si="22"/>
         <v>type_transaction</v>
       </c>
       <c r="I65" s="9" t="str">
-        <f>I26</f>
+        <f t="shared" si="22"/>
         <v>id_agent</v>
       </c>
       <c r="J65" s="9" t="str">
@@ -5166,23 +5165,23 @@
         <v>datetime</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" ref="C66:F66" si="21">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C66:F66" si="23">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>categorical</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>categorical</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>categorical</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" ref="G66" si="22">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="G66" si="24">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="H66" s="3" t="str">
@@ -5194,31 +5193,31 @@
         <v>categorical</v>
       </c>
       <c r="J66" s="3" t="str">
-        <f t="shared" ref="J66:P66" si="23">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="J66:P66" si="25">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="K66" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>uint64</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>int32</v>
       </c>
       <c r="M66" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>int32</v>
       </c>
       <c r="N66" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>int64</v>
       </c>
       <c r="O66" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>int64</v>
       </c>
       <c r="P66" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>int8</v>
       </c>
     </row>
@@ -5232,27 +5231,27 @@
         <v>s</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" ref="C67:F67" si="24">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C67:F67" si="26">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>None</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>None</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>None</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" ref="G67" si="25">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="G67" si="27">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="H67" s="3" t="str">
-        <f t="shared" ref="H67" si="26">_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="H67" si="28">_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="I67" s="3" t="str">
@@ -5260,31 +5259,31 @@
         <v>None</v>
       </c>
       <c r="J67" s="3" t="str">
-        <f t="shared" ref="J67:P67" si="27">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="J67:P67" si="29">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>Wh</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>Wh</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>€e7/Wh</v>
       </c>
       <c r="M67" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>€e7/Wh</v>
       </c>
       <c r="N67" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>€e7</v>
       </c>
       <c r="O67" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>€e7</v>
       </c>
       <c r="P67" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0-100</v>
       </c>
     </row>
@@ -5298,27 +5297,27 @@
         <v>current timestamp</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:F68" si="28">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C68:F68" si="30">_xlfn.XLOOKUP(C65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>region in which the market is</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>type of market</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>name of the market</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68" si="29">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="G68" si="31">_xlfn.XLOOKUP(G65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>type of energy (electr., heat, etc.)</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68" si="30">_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="H68" si="32">_xlfn.XLOOKUP(H65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="I68" t="str">
@@ -5326,31 +5325,31 @@
         <v>agent id (also serves as main meter)</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ref="J68:P68" si="31">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="J68:P68" si="33">_xlfn.XLOOKUP(J65,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>energy going into the meter</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>energy going out of the meter</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>spec. price for incoming energy</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>spec. price for outflowing energy</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>total price for incoming energy</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>total price for outflowing energy</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>quality share of energy (one column per type)</v>
       </c>
     </row>
@@ -5451,31 +5450,31 @@
         <v>datetime</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f t="shared" ref="C75:E75" si="32">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C75:E75" si="34">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>categorical</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>categorical</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f t="shared" ref="F75:I75" si="33">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="F75:I75" si="35">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>str</v>
       </c>
       <c r="H75" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>uint64</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>uint64</v>
       </c>
     </row>
@@ -5489,31 +5488,31 @@
         <v>s</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f t="shared" ref="C76:E76" si="34">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C76:E76" si="36">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>None</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>None</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f t="shared" ref="F76:I76" si="35">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="F76:I76" si="37">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>None</v>
       </c>
       <c r="H76" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>Wh</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>Wh</v>
       </c>
     </row>
@@ -5527,31 +5526,31 @@
         <v>current timestamp</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:E77" si="36">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C77:E77" si="38">_xlfn.XLOOKUP(C74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>type of market</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>name of the market</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" ref="F77:I77" si="37">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="F77:I77" si="39">_xlfn.XLOOKUP(F74,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>agent id (also serves as main meter)</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>id of the (sub-)meter</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>energy going into the meter</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>energy going out of the meter</v>
       </c>
     </row>
@@ -5652,31 +5651,31 @@
         <v>datetime</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f t="shared" ref="C84:I84" si="38">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C84:I84" si="40">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>categorical</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>categorical</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>categorical</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>str</v>
       </c>
       <c r="H84" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>uint64</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>uint64</v>
       </c>
     </row>
@@ -5690,31 +5689,31 @@
         <v>s</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f t="shared" ref="C85:I85" si="39">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C85:I85" si="41">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>None</v>
       </c>
       <c r="E85" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>None</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>None</v>
       </c>
       <c r="G85" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>None</v>
       </c>
       <c r="H85" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>Wh</v>
       </c>
       <c r="I85" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>Wh</v>
       </c>
     </row>
@@ -5728,31 +5727,31 @@
         <v>current timestamp</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ref="C86:I86" si="40">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C86:I86" si="42">_xlfn.XLOOKUP(C83,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>type of market</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>name of the market</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>agent id (also serves as main meter)</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>id of the (sub-)meter</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>energy going into the meter</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>energy going out of the meter</v>
       </c>
     </row>
@@ -5868,47 +5867,47 @@
         <v>datetime</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f t="shared" ref="C93" si="41">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C93" si="43">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" ref="D93" si="42">_xlfn.XLOOKUP(D92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="D93" si="44">_xlfn.XLOOKUP(D92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="E93" s="3" t="str">
-        <f t="shared" ref="E93" si="43">_xlfn.XLOOKUP(E92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="E93" si="45">_xlfn.XLOOKUP(E92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="F93" s="3" t="str">
-        <f t="shared" ref="F93" si="44">_xlfn.XLOOKUP(F92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="F93" si="46">_xlfn.XLOOKUP(F92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="G93" s="3" t="str">
-        <f t="shared" ref="G93" si="45">_xlfn.XLOOKUP(G92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="G93" si="47">_xlfn.XLOOKUP(G92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="H93" s="3" t="str">
-        <f t="shared" ref="H93" si="46">_xlfn.XLOOKUP(H92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="H93" si="48">_xlfn.XLOOKUP(H92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f t="shared" ref="I93" si="47">_xlfn.XLOOKUP(I92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="I93" si="49">_xlfn.XLOOKUP(I92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="J93" s="3" t="str">
-        <f t="shared" ref="J93" si="48">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="J93" si="50">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
       <c r="K93" s="3" t="str">
-        <f t="shared" ref="K93" si="49">_xlfn.XLOOKUP(K92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="K93" si="51">_xlfn.XLOOKUP(K92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
       <c r="L93" s="3" t="str">
-        <f t="shared" ref="L93" si="50">_xlfn.XLOOKUP(L92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="L93" si="52">_xlfn.XLOOKUP(L92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
       <c r="M93" s="3" t="str">
-        <f t="shared" ref="M93" si="51">_xlfn.XLOOKUP(M92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="M93" si="53">_xlfn.XLOOKUP(M92,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
     </row>
@@ -5922,47 +5921,47 @@
         <v>s</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f t="shared" ref="C94:I94" si="52">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C94:I94" si="54">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>None</v>
       </c>
       <c r="E94" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>None</v>
       </c>
       <c r="F94" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>None</v>
       </c>
       <c r="G94" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>None</v>
       </c>
       <c r="H94" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Wh</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Wh</v>
       </c>
       <c r="J94" s="3" t="str">
-        <f t="shared" ref="J94:M94" si="53">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="J94:M94" si="55">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>€e7/Wh</v>
       </c>
       <c r="K94" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>€e7/Wh</v>
       </c>
       <c r="L94" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>€e7</v>
       </c>
       <c r="M94" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>€e7</v>
       </c>
     </row>
@@ -5976,47 +5975,47 @@
         <v>current timestamp</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:I95" si="54">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C95:I95" si="56">_xlfn.XLOOKUP(C92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>region in which the market is</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>type of market</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>name of the market</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>energy going into the meter</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>energy going out of the meter</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" ref="J95:M95" si="55">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="J95:M95" si="57">_xlfn.XLOOKUP(J92,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>spec. price for incoming energy</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>spec. price for outflowing energy</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>total price for incoming energy</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>total price for outflowing energy</v>
       </c>
     </row>
@@ -6136,51 +6135,51 @@
         <v>datetime</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f t="shared" ref="C102" si="56">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C102" si="58">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f t="shared" ref="D102" si="57">_xlfn.XLOOKUP(D101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="D102" si="59">_xlfn.XLOOKUP(D101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="E102" s="3" t="str">
-        <f t="shared" ref="E102" si="58">_xlfn.XLOOKUP(E101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="E102" si="60">_xlfn.XLOOKUP(E101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="F102" s="3" t="str">
-        <f t="shared" ref="F102" si="59">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="F102" si="61">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="G102" s="3" t="str">
-        <f t="shared" ref="G102" si="60">_xlfn.XLOOKUP(G101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="G102" si="62">_xlfn.XLOOKUP(G101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="H102" s="3" t="str">
-        <f t="shared" ref="H102" si="61">_xlfn.XLOOKUP(H101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="H102" si="63">_xlfn.XLOOKUP(H101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f t="shared" ref="I102" si="62">_xlfn.XLOOKUP(I101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="I102" si="64">_xlfn.XLOOKUP(I101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="J102" s="3" t="str">
-        <f t="shared" ref="J102" si="63">_xlfn.XLOOKUP(J101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="J102" si="65">_xlfn.XLOOKUP(J101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
       <c r="K102" s="3" t="str">
-        <f t="shared" ref="K102" si="64">_xlfn.XLOOKUP(K101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="K102" si="66">_xlfn.XLOOKUP(K101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int32</v>
       </c>
       <c r="L102" s="3" t="str">
-        <f t="shared" ref="L102" si="65">_xlfn.XLOOKUP(L101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="L102" si="67">_xlfn.XLOOKUP(L101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
       <c r="M102" s="3" t="str">
-        <f t="shared" ref="M102:N102" si="66">_xlfn.XLOOKUP(M101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="M102:N102" si="68">_xlfn.XLOOKUP(M101,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
       <c r="N102" s="3" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>int8</v>
       </c>
     </row>
@@ -6194,51 +6193,51 @@
         <v>s</v>
       </c>
       <c r="C103" s="3" t="str">
-        <f t="shared" ref="C103:E103" si="67">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C103:E103" si="69">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>None</v>
       </c>
       <c r="E103" s="3" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>None</v>
       </c>
       <c r="F103" s="3" t="str">
-        <f t="shared" ref="F103:M103" si="68">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="F103:M103" si="70">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="G103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>None</v>
       </c>
       <c r="H103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>Wh</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>Wh</v>
       </c>
       <c r="J103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>€e7/Wh</v>
       </c>
       <c r="K103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>€e7/Wh</v>
       </c>
       <c r="L103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>€e7</v>
       </c>
       <c r="M103" s="3" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>€e7</v>
       </c>
       <c r="N103" s="3" t="str">
-        <f t="shared" ref="N103" si="69">_xlfn.XLOOKUP(N101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="N103" si="71">_xlfn.XLOOKUP(N101,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>0-100</v>
       </c>
     </row>
@@ -6252,51 +6251,51 @@
         <v>current timestamp</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" ref="C104:E104" si="70">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C104:E104" si="72">_xlfn.XLOOKUP(C101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>region in which the market is</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>type of market</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>name of the market</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" ref="F104:M104" si="71">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="F104:M104" si="73">_xlfn.XLOOKUP(F101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>agent id (also serves as main meter)</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>energy going into the meter</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>energy going out of the meter</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>spec. price for incoming energy</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>spec. price for outflowing energy</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>total price for incoming energy</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>total price for outflowing energy</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" ref="N104" si="72">_xlfn.XLOOKUP(N101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="N104" si="74">_xlfn.XLOOKUP(N101,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>quality share of energy (one column per type)</v>
       </c>
     </row>
@@ -6412,23 +6411,23 @@
         <v>categorical</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f t="shared" ref="C111" si="73">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C111" si="75">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" ref="D111" si="74">_xlfn.XLOOKUP(D110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="D111" si="76">_xlfn.XLOOKUP(D110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="E111" s="3" t="str">
-        <f t="shared" ref="E111" si="75">_xlfn.XLOOKUP(E110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="E111" si="77">_xlfn.XLOOKUP(E110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="F111" s="3" t="str">
-        <f t="shared" ref="F111" si="76">_xlfn.XLOOKUP(F110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="F111" si="78">_xlfn.XLOOKUP(F110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="G111" s="3" t="str">
-        <f t="shared" ref="G111" si="77">_xlfn.XLOOKUP(G110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="G111" si="79">_xlfn.XLOOKUP(G110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>uint64</v>
       </c>
       <c r="H111" s="3" t="str">
@@ -6436,23 +6435,23 @@
         <v>uint64</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f t="shared" ref="I111" si="78">_xlfn.XLOOKUP(I110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="I111" si="80">_xlfn.XLOOKUP(I110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
       <c r="J111" s="3" t="str">
-        <f t="shared" ref="J111" si="79">_xlfn.XLOOKUP(J110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="J111" si="81">_xlfn.XLOOKUP(J110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
       <c r="K111" s="3" t="str">
-        <f t="shared" ref="K111" si="80">_xlfn.XLOOKUP(K110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="K111" si="82">_xlfn.XLOOKUP(K110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int64</v>
       </c>
       <c r="L111" s="3" t="str">
-        <f t="shared" ref="L111:M111" si="81">_xlfn.XLOOKUP(L110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="L111:M111" si="83">_xlfn.XLOOKUP(L110,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>int8</v>
       </c>
       <c r="M111" s="3" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>categorical</v>
       </c>
     </row>
@@ -6466,23 +6465,23 @@
         <v>None</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" ref="C112:L112" si="82">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C112:L112" si="84">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>None</v>
       </c>
       <c r="E112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>None</v>
       </c>
       <c r="F112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>Wh</v>
       </c>
       <c r="G112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>Wh</v>
       </c>
       <c r="H112" s="3" t="str">
@@ -6490,23 +6489,23 @@
         <v>Wh</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>€e7</v>
       </c>
       <c r="J112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>€e7</v>
       </c>
       <c r="K112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>€e7</v>
       </c>
       <c r="L112" s="3" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0-100</v>
       </c>
       <c r="M112" s="3" t="str">
-        <f t="shared" ref="M112" si="83">_xlfn.XLOOKUP(M110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="M112" si="85">_xlfn.XLOOKUP(M110,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
     </row>
@@ -6520,23 +6519,23 @@
         <v>region in which the market is</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" ref="C113:L113" si="84">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C113:L113" si="86">_xlfn.XLOOKUP(C110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>type of market</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>name of the market</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>agent id (also serves as main meter)</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>energy going into the meter</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>energy going out of the meter</v>
       </c>
       <c r="H113" t="str">
@@ -6544,23 +6543,23 @@
         <v>used energy over all timesteps</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>total price for incoming energy</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>total price for outflowing energy</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>balance of bank account</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>quality share of energy (one column per type)</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" ref="M113" si="85">_xlfn.XLOOKUP(M110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="M113" si="87">_xlfn.XLOOKUP(M110,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>types of plants (per agent)</v>
       </c>
     </row>
@@ -6656,27 +6655,27 @@
         <v>categorical</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f t="shared" ref="C120" si="86">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C120" si="88">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f t="shared" ref="D120" si="87">_xlfn.XLOOKUP(D119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="D120" si="89">_xlfn.XLOOKUP(D119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="E120" s="3" t="str">
-        <f t="shared" ref="E120" si="88">_xlfn.XLOOKUP(E119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="E120" si="90">_xlfn.XLOOKUP(E119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="F120" s="3" t="str">
-        <f t="shared" ref="F120" si="89">_xlfn.XLOOKUP(F119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="F120" si="91">_xlfn.XLOOKUP(F119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>str</v>
       </c>
       <c r="G120" s="3" t="str">
-        <f t="shared" ref="G120" si="90">_xlfn.XLOOKUP(G119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="G120" si="92">_xlfn.XLOOKUP(G119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="H120" s="3" t="str">
-        <f t="shared" ref="H120" si="91">_xlfn.XLOOKUP(H119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="H120" si="93">_xlfn.XLOOKUP(H119,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="I120" s="3"/>
@@ -6696,27 +6695,27 @@
         <v>None</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f t="shared" ref="C121:H121" si="92">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C121:H121" si="94">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>None</v>
       </c>
       <c r="E121" s="3" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>None</v>
       </c>
       <c r="F121" s="3" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>None</v>
       </c>
       <c r="G121" s="3" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>None</v>
       </c>
       <c r="H121" s="3" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>None</v>
       </c>
       <c r="I121" s="3"/>
@@ -6736,27 +6735,27 @@
         <v>region in which the market is</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" ref="C122:H122" si="93">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C122:H122" si="95">_xlfn.XLOOKUP(C119,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>type of market</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>name of the market</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>agent id (also serves as main meter)</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>id of the (sub-)meter</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>type of meter</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>quality of energy</v>
       </c>
     </row>
@@ -6837,9 +6836,9 @@
         <f>H26</f>
         <v>type_transaction</v>
       </c>
-      <c r="H128" t="str">
-        <f>I26</f>
-        <v>id_agent</v>
+      <c r="H128" s="9" t="str">
+        <f>J26</f>
+        <v>id_agent_in</v>
       </c>
       <c r="I128" s="9" t="str">
         <f>N26</f>
@@ -6866,19 +6865,19 @@
         <v>datetime</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" ref="C129:F129" si="94">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C129:F129" si="96">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>categorical</v>
       </c>
       <c r="E129" s="3" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>categorical</v>
       </c>
       <c r="F129" s="3" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>categorical</v>
       </c>
       <c r="G129" s="3" t="str">
@@ -6914,19 +6913,19 @@
         <v>s</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" ref="C130:F130" si="95">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C130:F130" si="97">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>None</v>
       </c>
       <c r="E130" s="3" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>None</v>
       </c>
       <c r="F130" s="3" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>None</v>
       </c>
       <c r="G130" s="3" t="str">
@@ -6962,19 +6961,19 @@
         <v>current timestamp</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:F131" si="96">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C131:F131" si="98">_xlfn.XLOOKUP(C128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>region in which the market is</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>type of market</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>name of the market</v>
       </c>
       <c r="G131" t="str">
@@ -6983,7 +6982,7 @@
       </c>
       <c r="H131" t="str">
         <f>_xlfn.XLOOKUP(H128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
-        <v>agent id (also serves as main meter)</v>
+        <v>agent id of incoming energy</v>
       </c>
       <c r="I131" t="str">
         <f>_xlfn.XLOOKUP(I128,$B$26:$XFD$26,$B$29:$XFD$29)</f>
@@ -7056,28 +7055,28 @@
         <v>timestamp</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" ref="C137:H137" si="97">C128</f>
+        <f t="shared" ref="C137:H137" si="99">C128</f>
         <v>timestep</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>region</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>market</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>name</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>type_transaction</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="97"/>
-        <v>id_agent</v>
+        <f t="shared" si="99"/>
+        <v>id_agent_in</v>
       </c>
       <c r="I137" t="str">
         <f>I128</f>
@@ -7102,31 +7101,31 @@
         <v>datetime</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" ref="C138:I138" si="98">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C138:I138" si="100">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>categorical</v>
       </c>
       <c r="E138" s="3" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>categorical</v>
       </c>
       <c r="F138" s="3" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>categorical</v>
       </c>
       <c r="G138" s="3" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>categorical</v>
       </c>
       <c r="H138" s="3" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>categorical</v>
       </c>
       <c r="I138" s="3" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>uint64</v>
       </c>
       <c r="J138" s="3" t="str">
@@ -7151,31 +7150,31 @@
         <v>s</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" ref="C139:I139" si="99">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C139:I139" si="101">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>None</v>
       </c>
       <c r="E139" s="3" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>None</v>
       </c>
       <c r="F139" s="3" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>None</v>
       </c>
       <c r="G139" s="3" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>None</v>
       </c>
       <c r="H139" s="3" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>None</v>
       </c>
       <c r="I139" s="3" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>Wh</v>
       </c>
       <c r="J139" s="3" t="str">
@@ -7200,31 +7199,31 @@
         <v>current timestamp</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" ref="C140:I140" si="100">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C140:I140" si="102">_xlfn.XLOOKUP(C137,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>region in which the market is</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>type of market</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>name of the market</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="100"/>
-        <v>agent id (also serves as main meter)</v>
+        <f t="shared" si="102"/>
+        <v>agent id of incoming energy</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>energy going into the meter</v>
       </c>
       <c r="J140" t="str">
@@ -7314,8 +7313,8 @@
         <v>type_transaction</v>
       </c>
       <c r="H146" s="9" t="str">
-        <f>I26</f>
-        <v>id_agent</v>
+        <f>K26</f>
+        <v>id_agent_out</v>
       </c>
       <c r="I146" s="9" t="str">
         <f>O26</f>
@@ -7344,43 +7343,43 @@
         <v>datetime</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f t="shared" ref="C147:F147" si="101">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C147:F147" si="103">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>categorical</v>
       </c>
       <c r="E147" s="3" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>categorical</v>
       </c>
       <c r="F147" s="3" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>categorical</v>
       </c>
       <c r="G147" s="3" t="str">
-        <f t="shared" ref="G147:L147" si="102">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="G147:L147" si="104">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="H147" s="3" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>categorical</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>uint64</v>
       </c>
       <c r="J147" s="3" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>int32</v>
       </c>
       <c r="K147" s="3" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>int64</v>
       </c>
       <c r="L147" s="3" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>categorical</v>
       </c>
       <c r="N147" s="3"/>
@@ -7396,43 +7395,43 @@
         <v>s</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f t="shared" ref="C148:F148" si="103">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C148:F148" si="105">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>None</v>
       </c>
       <c r="E148" s="3" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>None</v>
       </c>
       <c r="F148" s="3" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>None</v>
       </c>
       <c r="G148" s="3" t="str">
-        <f t="shared" ref="G148:L148" si="104">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="G148:L148" si="106">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="H148" s="3" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>None</v>
       </c>
       <c r="I148" s="3" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>Wh</v>
       </c>
       <c r="J148" s="3" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>€e7/Wh</v>
       </c>
       <c r="K148" s="3" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>€e7</v>
       </c>
       <c r="L148" s="3" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>None</v>
       </c>
       <c r="N148" s="3"/>
@@ -7448,43 +7447,43 @@
         <v>current timestamp</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" ref="C149:F149" si="105">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C149:F149" si="107">_xlfn.XLOOKUP(C146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>region in which the market is</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>type of market</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>name of the market</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" ref="G149:L149" si="106">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="G149:L149" si="108">_xlfn.XLOOKUP(G146,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="106"/>
-        <v>agent id (also serves as main meter)</v>
+        <f t="shared" si="108"/>
+        <v>agent id of outgoing energy</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>energy going out of the meter</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>spec. price for outflowing energy</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>total price for outflowing energy</v>
       </c>
       <c r="L149" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>quality of energy</v>
       </c>
     </row>
@@ -7546,28 +7545,28 @@
         <v>timestamp</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" ref="C155:H155" si="107">C146</f>
+        <f t="shared" ref="C155:H155" si="109">C146</f>
         <v>timestep</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>region</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>market</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>name</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>type_transaction</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="107"/>
-        <v>id_agent</v>
+        <f t="shared" si="109"/>
+        <v>id_agent_out</v>
       </c>
       <c r="I155" t="str">
         <f>I146</f>
@@ -7596,43 +7595,43 @@
         <v>datetime</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f t="shared" ref="C156:L156" si="108">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C156:L156" si="110">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>categorical</v>
       </c>
       <c r="E156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>categorical</v>
       </c>
       <c r="F156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>categorical</v>
       </c>
       <c r="G156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>categorical</v>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>categorical</v>
       </c>
       <c r="I156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>uint64</v>
       </c>
       <c r="J156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>int32</v>
       </c>
       <c r="K156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>int64</v>
       </c>
       <c r="L156" s="3" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>categorical</v>
       </c>
       <c r="M156" s="3"/>
@@ -7649,43 +7648,43 @@
         <v>s</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f t="shared" ref="C157:L157" si="109">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C157:L157" si="111">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>None</v>
       </c>
       <c r="E157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>None</v>
       </c>
       <c r="F157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>None</v>
       </c>
       <c r="G157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>None</v>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>None</v>
       </c>
       <c r="I157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>Wh</v>
       </c>
       <c r="J157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>€e7/Wh</v>
       </c>
       <c r="K157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>€e7</v>
       </c>
       <c r="L157" s="3" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>None</v>
       </c>
       <c r="M157" s="3"/>
@@ -7702,43 +7701,43 @@
         <v>current timestamp</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" ref="C158:L158" si="110">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C158:L158" si="112">_xlfn.XLOOKUP(C155,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>region in which the market is</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>type of market</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>name of the market</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="110"/>
-        <v>agent id (also serves as main meter)</v>
+        <f t="shared" si="112"/>
+        <v>agent id of outgoing energy</v>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>energy going out of the meter</v>
       </c>
       <c r="J158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>spec. price for outflowing energy</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>total price for outflowing energy</v>
       </c>
       <c r="L158" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>quality of energy</v>
       </c>
     </row>
@@ -7854,47 +7853,47 @@
         <v>datetime</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f t="shared" ref="C165:H165" si="111">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="C165:H165" si="113">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>categorical</v>
       </c>
       <c r="E165" s="3" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>categorical</v>
       </c>
       <c r="F165" s="3" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>categorical</v>
       </c>
       <c r="G165" s="3" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>categorical</v>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>categorical</v>
       </c>
       <c r="I165" s="3" t="str">
-        <f t="shared" ref="I165:M165" si="112">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
+        <f t="shared" ref="I165:M165" si="114">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>categorical</v>
       </c>
       <c r="J165" s="3" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>int64</v>
       </c>
       <c r="K165" s="3" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>int32</v>
       </c>
       <c r="L165" s="3" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>int64</v>
       </c>
       <c r="M165" s="3" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>categorical</v>
       </c>
       <c r="N165" s="3"/>
@@ -7910,47 +7909,47 @@
         <v>s</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f t="shared" ref="C166:H166" si="113">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="C166:H166" si="115">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>None</v>
       </c>
       <c r="E166" s="3" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>None</v>
       </c>
       <c r="F166" s="3" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>None</v>
       </c>
       <c r="G166" s="3" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>None</v>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>None</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f t="shared" ref="I166:M166" si="114">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
+        <f t="shared" ref="I166:M166" si="116">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>None</v>
       </c>
       <c r="J166" s="3" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>Wh</v>
       </c>
       <c r="K166" s="3" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>€e7/Wh</v>
       </c>
       <c r="L166" s="3" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>€e7</v>
       </c>
       <c r="M166" s="3" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>None</v>
       </c>
       <c r="N166" s="3"/>
@@ -7966,47 +7965,47 @@
         <v>current timestamp</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" ref="C167:H167" si="115">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="C167:H167" si="117">_xlfn.XLOOKUP(C164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>timestep (can be in future)</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>region in which the market is</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>type of market</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>name of the market</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>source of the costs/profits (e.g. Market, levies, balancing)</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>agent id of incoming energy</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" ref="I167:M167" si="116">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
+        <f t="shared" ref="I167:M167" si="118">_xlfn.XLOOKUP(I164,$B$26:$XFD$26,$B$29:$XFD$29)</f>
         <v>agent id of outgoing energy</v>
       </c>
       <c r="J167" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>undirectional energy</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>spec. price for energy</v>
       </c>
       <c r="L167" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>total price for energy</v>
       </c>
       <c r="M167" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>quality of energy</v>
       </c>
     </row>

--- a/hamlet/tables.xlsx
+++ b/hamlet/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\hamlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91527C64-33C2-4BF7-B4B9-B04F38276B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350FCF08-5E86-486B-AE3B-1990C9DC4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="301">
   <si>
     <t>column</t>
   </si>
@@ -935,6 +935,12 @@
   </si>
   <si>
     <t>coupling method (above, below)</t>
+  </si>
+  <si>
+    <t>any integer (flexible size)</t>
+  </si>
+  <si>
+    <t>unit depends on plant</t>
   </si>
 </sst>
 </file>
@@ -3559,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B957E-FD5F-4D07-9D0A-3E5DB720F61E}">
   <dimension ref="A1:AK214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -4131,6 +4137,9 @@
       <c r="AE27" s="9" t="s">
         <v>126</v>
       </c>
+      <c r="AF27" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="AG27" s="9" t="s">
         <v>98</v>
       </c>
@@ -4241,6 +4250,9 @@
       <c r="AE28" s="9" t="s">
         <v>248</v>
       </c>
+      <c r="AF28" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AG28" s="9" t="s">
         <v>155</v>
       </c>
@@ -4378,7 +4390,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -4427,8 +4439,11 @@
       <c r="P33" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>123</v>
       </c>
@@ -4465,8 +4480,11 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>124</v>
       </c>
@@ -4503,8 +4521,11 @@
       <c r="O35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>129</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>130</v>
       </c>
@@ -4520,19 +4541,19 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="13"/>
     </row>
-    <row r="41" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -4554,7 +4575,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="44" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="str">
         <f>A4</f>
         <v>balancing_energy</v>
@@ -4576,10 +4597,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4649,7 @@
         <v>price_out</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -4678,7 +4699,7 @@
         <v>int64</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -8335,9 +8356,9 @@
         <f>_xlfn.XLOOKUP(B191,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="3" t="str">
         <f>_xlfn.XLOOKUP(C191,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>0</v>
+        <v>int</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -8361,9 +8382,9 @@
         <f>_xlfn.XLOOKUP(B191,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="3" t="str">
         <f>_xlfn.XLOOKUP(C191,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>0</v>
+        <v>unit depends on plant</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -8627,9 +8648,9 @@
         <f>_xlfn.XLOOKUP(C210,$B$26:$XFD$26,$B$27:$XFD$27)</f>
         <v>datetime</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="3" t="str">
         <f>_xlfn.XLOOKUP(D210,$B$26:$XFD$26,$B$27:$XFD$27)</f>
-        <v>0</v>
+        <v>int</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -8656,9 +8677,9 @@
         <f>_xlfn.XLOOKUP(C210,$B$26:$XFD$26,$B$28:$XFD$28)</f>
         <v>s</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="3" t="str">
         <f>_xlfn.XLOOKUP(D210,$B$26:$XFD$26,$B$28:$XFD$28)</f>
-        <v>0</v>
+        <v>unit depends on plant</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>

--- a/hamlet/tables.xlsx
+++ b/hamlet/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\hamlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET-gitlab\hamlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350FCF08-5E86-486B-AE3B-1990C9DC4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C41D24-8992-4881-9532-79F71F3019C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="303">
   <si>
     <t>column</t>
   </si>
@@ -941,6 +941,12 @@
   </si>
   <si>
     <t>unit depends on plant</t>
+  </si>
+  <si>
+    <t>id_trade</t>
+  </si>
+  <si>
+    <t>unique ID of trade</t>
   </si>
 </sst>
 </file>
@@ -1085,9 +1091,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1125,7 +1131,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1231,7 +1237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1373,7 +1379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1385,9 +1391,9 @@
   <sheetViews>
     <sheetView showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -1403,51 +1409,51 @@
   <sheetViews>
     <sheetView showOutlineSymbols="0" topLeftCell="A145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -1455,8 +1461,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1507,18 +1513,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -1526,8 +1532,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1623,18 +1629,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -1642,8 +1648,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1763,18 +1769,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -1782,8 +1788,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1888,31 +1894,31 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2025,19 +2031,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2142,24 +2148,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -2219,24 +2225,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -2287,24 +2293,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -2355,18 +2361,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>60</v>
       </c>
@@ -2374,8 +2380,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2458,12 +2464,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -2546,19 +2552,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B98" s="17" t="s">
         <v>94</v>
       </c>
@@ -2567,33 +2573,33 @@
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2635,19 +2641,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B113" s="17" t="s">
         <v>53</v>
       </c>
@@ -2656,33 +2662,33 @@
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
     </row>
-    <row r="114" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -2724,18 +2730,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:6" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="126" spans="1:6" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>185</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>60</v>
       </c>
@@ -2751,8 +2757,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="131" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -2857,13 +2863,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>186</v>
       </c>
@@ -2871,12 +2877,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="V138" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3143,18 +3149,18 @@
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="144" spans="1:29" s="4" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>226</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>60</v>
       </c>
@@ -3170,8 +3176,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="149" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3231,13 +3237,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>230</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>60</v>
       </c>
@@ -3253,8 +3259,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -3284,13 +3290,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>231</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>60</v>
       </c>
@@ -3306,8 +3312,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="168" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>28</v>
       </c>
@@ -3337,13 +3343,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>233</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>60</v>
       </c>
@@ -3359,8 +3365,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="177" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -3390,13 +3396,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>237</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>60</v>
       </c>
@@ -3412,8 +3418,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="184" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="185" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -3491,13 +3497,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>242</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="192" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>60</v>
       </c>
@@ -3513,8 +3519,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="194" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>28</v>
       </c>
@@ -3544,12 +3550,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="197" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B98:F100"/>
@@ -3563,18 +3569,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B957E-FD5F-4D07-9D0A-3E5DB720F61E}">
-  <dimension ref="A1:AK214"/>
+  <dimension ref="A1:AL214"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+      <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.7265625" defaultRowHeight="14.5" outlineLevelRow="4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="3"/>
+    <col min="1" max="1" width="25.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>282</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>284</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>288</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>285</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>138</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>171</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>173</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>174</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>203</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>204</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>205</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>182</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>206</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>258</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>259</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>260</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>261</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>266</v>
       </c>
@@ -3922,15 +3928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>112</v>
       </c>
@@ -4042,8 +4048,11 @@
       <c r="AK26" s="9" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="AL26" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
@@ -4155,8 +4164,11 @@
       <c r="AK27" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="AL27" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>111</v>
       </c>
@@ -4269,7 +4281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="9" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
@@ -4381,16 +4393,19 @@
       <c r="AK29" s="9" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL29" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>123</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>124</v>
       </c>
@@ -4525,7 +4540,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>129</v>
       </c>
@@ -4533,7 +4548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>130</v>
       </c>
@@ -4541,19 +4556,19 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="13"/>
     </row>
-    <row r="41" spans="1:17" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -4575,7 +4590,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="44" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="str">
         <f>A4</f>
         <v>balancing_energy</v>
@@ -4597,10 +4612,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4649,7 +4664,7 @@
         <v>price_out</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -4699,7 +4714,7 @@
         <v>int64</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -4749,7 +4764,7 @@
         <v>€e7</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -4799,10 +4814,10 @@
         <v>total price for outflowing energy</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
     </row>
-    <row r="52" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -4824,7 +4839,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="str">
         <f>A5</f>
         <v>timetable</v>
@@ -4846,14 +4861,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="D55" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +4917,7 @@
         <v>coupling</v>
       </c>
     </row>
-    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -4955,7 +4970,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -5008,7 +5023,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -5058,13 +5073,13 @@
         <v>coupling method (above, below)</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -5086,7 +5101,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="str">
         <f>A6</f>
         <v>market_transactions</v>
@@ -5108,10 +5123,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5176,7 +5191,7 @@
         <v>share_quality_XXX</v>
       </c>
     </row>
-    <row r="66" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -5242,7 +5257,7 @@
         <v>int8</v>
       </c>
     </row>
-    <row r="67" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -5308,7 +5323,7 @@
         <v>0-100</v>
       </c>
     </row>
-    <row r="68" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -5374,10 +5389,10 @@
         <v>quality share of energy (one column per type)</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -5399,7 +5414,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="72" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="str">
         <f>A7</f>
         <v>meter_readings_cum</v>
@@ -5421,10 +5436,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5461,7 +5476,7 @@
         <v>energy_out</v>
       </c>
     </row>
-    <row r="75" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -5499,7 +5514,7 @@
         <v>uint64</v>
       </c>
     </row>
-    <row r="76" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -5537,7 +5552,7 @@
         <v>Wh</v>
       </c>
     </row>
-    <row r="77" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -5575,10 +5590,10 @@
         <v>energy going out of the meter</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -5600,7 +5615,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="81" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="str">
         <f>A8</f>
         <v>meter_readings_delta</v>
@@ -5622,10 +5637,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +5677,7 @@
         <v>energy_out</v>
       </c>
     </row>
-    <row r="84" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -5700,7 +5715,7 @@
         <v>uint64</v>
       </c>
     </row>
-    <row r="85" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -5738,7 +5753,7 @@
         <v>Wh</v>
       </c>
     </row>
-    <row r="86" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -5776,10 +5791,10 @@
         <v>energy going out of the meter</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -5801,7 +5816,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="90" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
         <v>138</v>
       </c>
@@ -5822,10 +5837,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5878,7 +5893,7 @@
         <v>price_out</v>
       </c>
     </row>
-    <row r="93" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -5932,7 +5947,7 @@
         <v>int64</v>
       </c>
     </row>
-    <row r="94" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -5986,7 +6001,7 @@
         <v>€e7</v>
       </c>
     </row>
-    <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -6040,10 +6055,10 @@
         <v>total price for outflowing energy</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -6065,7 +6080,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="99" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
         <v>171</v>
       </c>
@@ -6086,10 +6101,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>share_quality_XXX</v>
       </c>
     </row>
-    <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -6204,7 +6219,7 @@
         <v>int8</v>
       </c>
     </row>
-    <row r="103" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -6262,7 +6277,7 @@
         <v>0-100</v>
       </c>
     </row>
-    <row r="104" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -6320,10 +6335,10 @@
         <v>quality share of energy (one column per type)</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -6345,7 +6360,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="108" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
         <v>173</v>
       </c>
@@ -6366,10 +6381,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6422,7 +6437,7 @@
         <v>type_plants</v>
       </c>
     </row>
-    <row r="111" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -6476,7 +6491,7 @@
         <v>categorical</v>
       </c>
     </row>
-    <row r="112" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -6530,7 +6545,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -6584,10 +6599,10 @@
         <v>types of plants (per agent)</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="8"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -6609,7 +6624,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="117" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="16" t="s">
         <v>174</v>
       </c>
@@ -6630,10 +6645,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>quality</v>
       </c>
     </row>
-    <row r="120" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -6706,7 +6721,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -6746,7 +6761,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -6780,10 +6795,10 @@
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="8"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -6805,7 +6820,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
         <v>203</v>
       </c>
@@ -6826,10 +6841,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6876,7 +6891,7 @@
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
     </row>
-    <row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -6924,7 +6939,7 @@
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -6972,7 +6987,7 @@
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -7018,10 +7033,10 @@
         <v>total price for incoming energy</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="8"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -7043,7 +7058,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A135" s="16" t="s">
         <v>204</v>
       </c>
@@ -7064,10 +7079,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -7112,7 +7127,7 @@
         <v>price_in</v>
       </c>
     </row>
-    <row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -7161,7 +7176,7 @@
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -7210,7 +7225,7 @@
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -7256,10 +7271,10 @@
         <v>total price for incoming energy</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="8"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -7281,7 +7296,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="144" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="16" t="s">
         <v>205</v>
       </c>
@@ -7302,10 +7317,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7354,7 +7369,7 @@
         <v>quality</v>
       </c>
     </row>
-    <row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -7406,7 +7421,7 @@
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -7458,7 +7473,7 @@
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -7508,10 +7523,10 @@
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="150" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="8"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -7533,7 +7548,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="153" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A153" s="16" t="s">
         <v>182</v>
       </c>
@@ -7554,10 +7569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7606,7 +7621,7 @@
         <v>quality</v>
       </c>
     </row>
-    <row r="156" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -7659,7 +7674,7 @@
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -7712,7 +7727,7 @@
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -7762,10 +7777,10 @@
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="8"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -7787,7 +7802,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="162" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A162" s="16" t="s">
         <v>206</v>
       </c>
@@ -7808,10 +7823,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7864,7 +7879,7 @@
         <v>quality</v>
       </c>
     </row>
-    <row r="165" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -7920,7 +7935,7 @@
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -7976,7 +7991,7 @@
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -8030,10 +8045,10 @@
         <v>quality of energy</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="8"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -8055,7 +8070,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="171" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A171" s="16" t="s">
         <v>258</v>
       </c>
@@ -8076,13 +8091,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A172"/>
       <c r="B172" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="173" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -8097,7 +8112,7 @@
       <c r="L173" s="9"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -8120,7 +8135,7 @@
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -8143,7 +8158,7 @@
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -8153,10 +8168,10 @@
         <v>used energy over all timesteps</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="8"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -8178,7 +8193,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="180" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A180" s="16" t="s">
         <v>259</v>
       </c>
@@ -8199,13 +8214,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="182" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8220,7 +8235,7 @@
       <c r="L182" s="9"/>
       <c r="M182" s="9"/>
     </row>
-    <row r="183" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -8243,7 +8258,7 @@
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -8266,7 +8281,7 @@
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -8276,10 +8291,10 @@
         <v>state-of-charge</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="8"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -8301,7 +8316,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="189" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A189" s="16" t="s">
         <v>260</v>
       </c>
@@ -8322,13 +8337,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A190"/>
       <c r="C190" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="191" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8362,7 @@
       <c r="L191" s="9"/>
       <c r="M191" s="9"/>
     </row>
-    <row r="192" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -8373,7 +8388,7 @@
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -8399,7 +8414,7 @@
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -8413,10 +8428,10 @@
         <v>value of plant timeseries</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="8"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -8438,7 +8453,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="198" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A198" s="16" t="s">
         <v>261</v>
       </c>
@@ -8459,13 +8474,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="D199" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="200" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8482,7 +8497,7 @@
         <v>power</v>
       </c>
     </row>
-    <row r="201" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -8511,7 +8526,7 @@
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -8540,7 +8555,7 @@
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -8558,10 +8573,10 @@
         <v>undirectional power</v>
       </c>
     </row>
-    <row r="204" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="8"/>
     </row>
-    <row r="206" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="str">
         <f>$A$3</f>
         <v>Table</v>
@@ -8583,7 +8598,7 @@
         <v>Saved</v>
       </c>
     </row>
-    <row r="207" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="16" t="str">
         <f>A22</f>
         <v>forecasts</v>
@@ -8605,14 +8620,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="209" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="D209" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8635,7 +8650,7 @@
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
     </row>
-    <row r="211" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="str">
         <f>$A$27</f>
         <v>dtype</v>
@@ -8664,7 +8679,7 @@
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="str">
         <f>$A$28</f>
         <v>unit</v>
@@ -8693,7 +8708,7 @@
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="str">
         <f>$A$29</f>
         <v>description</v>
@@ -8711,7 +8726,7 @@
         <v>value of plant timeseries</v>
       </c>
     </row>
-    <row r="214" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="8"/>
     </row>
   </sheetData>
